--- a/data/nzd0298/nzd0298.xlsx
+++ b/data/nzd0298/nzd0298.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L707"/>
+  <dimension ref="A1:L712"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27336,6 +27336,202 @@
         </is>
       </c>
     </row>
+    <row r="708">
+      <c r="A708" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-06 22:00:23+00:00</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr"/>
+      <c r="C708" t="inlineStr"/>
+      <c r="D708" t="n">
+        <v>353.4671428571428</v>
+      </c>
+      <c r="E708" t="n">
+        <v>365.96</v>
+      </c>
+      <c r="F708" t="n">
+        <v>356.1171428571428</v>
+      </c>
+      <c r="G708" t="n">
+        <v>351.7471428571428</v>
+      </c>
+      <c r="H708" t="n">
+        <v>345.4971428571428</v>
+      </c>
+      <c r="I708" t="n">
+        <v>350.3471428571428</v>
+      </c>
+      <c r="J708" t="n">
+        <v>354.54</v>
+      </c>
+      <c r="K708" t="n">
+        <v>362.86</v>
+      </c>
+      <c r="L708" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-22 22:00:26+00:00</t>
+        </is>
+      </c>
+      <c r="B709" t="n">
+        <v>348.22</v>
+      </c>
+      <c r="C709" t="n">
+        <v>345.5928571428572</v>
+      </c>
+      <c r="D709" t="n">
+        <v>359.0628571428572</v>
+      </c>
+      <c r="E709" t="n">
+        <v>367.75</v>
+      </c>
+      <c r="F709" t="n">
+        <v>353.1328571428572</v>
+      </c>
+      <c r="G709" t="n">
+        <v>354.0428571428571</v>
+      </c>
+      <c r="H709" t="n">
+        <v>353.4228571428571</v>
+      </c>
+      <c r="I709" t="n">
+        <v>347.2528571428572</v>
+      </c>
+      <c r="J709" t="inlineStr"/>
+      <c r="K709" t="inlineStr"/>
+      <c r="L709" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-08 22:00:23+00:00</t>
+        </is>
+      </c>
+      <c r="B710" t="n">
+        <v>333.52</v>
+      </c>
+      <c r="C710" t="n">
+        <v>333.0671428571428</v>
+      </c>
+      <c r="D710" t="n">
+        <v>338.4071428571428</v>
+      </c>
+      <c r="E710" t="n">
+        <v>355.79</v>
+      </c>
+      <c r="F710" t="n">
+        <v>346.7271428571428</v>
+      </c>
+      <c r="G710" t="n">
+        <v>332.4171428571428</v>
+      </c>
+      <c r="H710" t="n">
+        <v>327.9271428571428</v>
+      </c>
+      <c r="I710" t="n">
+        <v>337.5371428571428</v>
+      </c>
+      <c r="J710" t="n">
+        <v>339.81</v>
+      </c>
+      <c r="K710" t="n">
+        <v>350.03</v>
+      </c>
+      <c r="L710" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-24 22:00:45+00:00</t>
+        </is>
+      </c>
+      <c r="B711" t="n">
+        <v>339.99</v>
+      </c>
+      <c r="C711" t="n">
+        <v>345.4328571428572</v>
+      </c>
+      <c r="D711" t="n">
+        <v>339.6528571428572</v>
+      </c>
+      <c r="E711" t="n">
+        <v>366.84</v>
+      </c>
+      <c r="F711" t="n">
+        <v>361.1528571428572</v>
+      </c>
+      <c r="G711" t="n">
+        <v>346.2728571428572</v>
+      </c>
+      <c r="H711" t="n">
+        <v>335.0528571428572</v>
+      </c>
+      <c r="I711" t="n">
+        <v>341.9028571428572</v>
+      </c>
+      <c r="J711" t="n">
+        <v>353.33</v>
+      </c>
+      <c r="K711" t="n">
+        <v>358.05</v>
+      </c>
+      <c r="L711" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-25 21:54:19+00:00</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr"/>
+      <c r="C712" t="inlineStr"/>
+      <c r="D712" t="inlineStr"/>
+      <c r="E712" t="n">
+        <v>365.36</v>
+      </c>
+      <c r="F712" t="n">
+        <v>359.6785714285714</v>
+      </c>
+      <c r="G712" t="n">
+        <v>338.8785714285714</v>
+      </c>
+      <c r="H712" t="n">
+        <v>333.1285714285714</v>
+      </c>
+      <c r="I712" t="n">
+        <v>343.7685714285714</v>
+      </c>
+      <c r="J712" t="n">
+        <v>355.91</v>
+      </c>
+      <c r="K712" t="n">
+        <v>359.81</v>
+      </c>
+      <c r="L712" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -27347,7 +27543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B712"/>
+  <dimension ref="A1:B717"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34475,6 +34671,56 @@
       </c>
       <c r="B712" t="n">
         <v>0.33</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>2024-12-06 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B713" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>2024-12-22 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B714" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>2025-02-08 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B715" t="n">
+        <v>-0.46</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>2025-02-24 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B716" t="n">
+        <v>-0.45</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>2025-02-25 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B717" t="n">
+        <v>-0.58</v>
       </c>
     </row>
   </sheetData>
@@ -34643,28 +34889,28 @@
         <v>0.0265</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.5735144631023236</v>
+        <v>-0.5594574648277723</v>
       </c>
       <c r="J2" t="n">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="K2" t="n">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05290822080742774</v>
+        <v>0.05086353619174366</v>
       </c>
       <c r="M2" t="n">
-        <v>13.30639501334666</v>
+        <v>13.29231381898835</v>
       </c>
       <c r="N2" t="n">
-        <v>308.5676920922638</v>
+        <v>307.9509644592056</v>
       </c>
       <c r="O2" t="n">
-        <v>17.56609495853486</v>
+        <v>17.54853168955185</v>
       </c>
       <c r="P2" t="n">
-        <v>342.3728227310109</v>
+        <v>342.2326018435672</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -34720,28 +34966,28 @@
         <v>0.0357</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2347263059493847</v>
+        <v>-0.2238292072975073</v>
       </c>
       <c r="J3" t="n">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="K3" t="n">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03083801739084224</v>
+        <v>0.0282480631869485</v>
       </c>
       <c r="M3" t="n">
-        <v>7.698081458147141</v>
+        <v>7.701368912237554</v>
       </c>
       <c r="N3" t="n">
-        <v>92.69767677002508</v>
+        <v>92.85564704740334</v>
       </c>
       <c r="O3" t="n">
-        <v>9.627963272158087</v>
+        <v>9.63616350252544</v>
       </c>
       <c r="P3" t="n">
-        <v>338.0741007974099</v>
+        <v>337.9665814242033</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -34797,28 +35043,28 @@
         <v>0.0362</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.186676548454031</v>
+        <v>-0.1725128775150011</v>
       </c>
       <c r="J4" t="n">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="K4" t="n">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01509870390405221</v>
+        <v>0.01296372958459791</v>
       </c>
       <c r="M4" t="n">
-        <v>8.751230216049178</v>
+        <v>8.759181893317935</v>
       </c>
       <c r="N4" t="n">
-        <v>123.1040949678855</v>
+        <v>123.5541749962604</v>
       </c>
       <c r="O4" t="n">
-        <v>11.09522847749813</v>
+        <v>11.11549256651546</v>
       </c>
       <c r="P4" t="n">
-        <v>341.9543546362792</v>
+        <v>341.8147305095055</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -34874,28 +35120,28 @@
         <v>0.0413</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.06900715947599322</v>
+        <v>-0.05267471533748248</v>
       </c>
       <c r="J5" t="n">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="K5" t="n">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003152851094320175</v>
+        <v>0.001847925701369268</v>
       </c>
       <c r="M5" t="n">
-        <v>7.116168985212322</v>
+        <v>7.136495860075694</v>
       </c>
       <c r="N5" t="n">
-        <v>81.47861633936604</v>
+        <v>81.79007331152464</v>
       </c>
       <c r="O5" t="n">
-        <v>9.026550633512562</v>
+        <v>9.043786447695712</v>
       </c>
       <c r="P5" t="n">
-        <v>356.0286811343499</v>
+        <v>355.867658234165</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -34951,28 +35197,28 @@
         <v>0.0357</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2515710142855255</v>
+        <v>-0.233251497624117</v>
       </c>
       <c r="J6" t="n">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="K6" t="n">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02803588039007343</v>
+        <v>0.02433312557851408</v>
       </c>
       <c r="M6" t="n">
-        <v>8.395979498390432</v>
+        <v>8.423346246434489</v>
       </c>
       <c r="N6" t="n">
-        <v>118.3317238400794</v>
+        <v>118.633673463583</v>
       </c>
       <c r="O6" t="n">
-        <v>10.87803860261947</v>
+        <v>10.89190862354174</v>
       </c>
       <c r="P6" t="n">
-        <v>350.3284719151937</v>
+        <v>350.1473193410029</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -35028,28 +35274,28 @@
         <v>0.0368</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3111029528645552</v>
+        <v>-0.2979856218729189</v>
       </c>
       <c r="J7" t="n">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="K7" t="n">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04360085937813551</v>
+        <v>0.04042323878342979</v>
       </c>
       <c r="M7" t="n">
-        <v>8.411760576785349</v>
+        <v>8.427607524658676</v>
       </c>
       <c r="N7" t="n">
-        <v>113.2662423679528</v>
+        <v>113.408068156833</v>
       </c>
       <c r="O7" t="n">
-        <v>10.64266143255308</v>
+        <v>10.64932242712338</v>
       </c>
       <c r="P7" t="n">
-        <v>344.391690080506</v>
+        <v>344.2616537934513</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -35105,28 +35351,28 @@
         <v>0.0361</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1213179853759624</v>
+        <v>-0.1185828060183849</v>
       </c>
       <c r="J8" t="n">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="K8" t="n">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="L8" t="n">
-        <v>0.006741811416465571</v>
+        <v>0.006512743579975777</v>
       </c>
       <c r="M8" t="n">
-        <v>8.430837760622625</v>
+        <v>8.427433302516226</v>
       </c>
       <c r="N8" t="n">
-        <v>115.0957981184327</v>
+        <v>114.8527346455187</v>
       </c>
       <c r="O8" t="n">
-        <v>10.72827097525192</v>
+        <v>10.71693681261202</v>
       </c>
       <c r="P8" t="n">
-        <v>340.3922558713968</v>
+        <v>340.3655159856885</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -35182,28 +35428,28 @@
         <v>0.0403</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04148110502384031</v>
+        <v>0.04100547852160376</v>
       </c>
       <c r="J9" t="n">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="K9" t="n">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0009068046639058025</v>
+        <v>0.0008998521452160402</v>
       </c>
       <c r="M9" t="n">
-        <v>7.933740058588049</v>
+        <v>7.898264744442155</v>
       </c>
       <c r="N9" t="n">
-        <v>100.9366608800113</v>
+        <v>100.24285569674</v>
       </c>
       <c r="O9" t="n">
-        <v>10.04672388791547</v>
+        <v>10.01213542141435</v>
       </c>
       <c r="P9" t="n">
-        <v>343.3657853157559</v>
+        <v>343.37079561011</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -35259,28 +35505,28 @@
         <v>0.0409</v>
       </c>
       <c r="I10" t="n">
-        <v>0.04604223369526426</v>
+        <v>0.04737462328728259</v>
       </c>
       <c r="J10" t="n">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="K10" t="n">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001556070574196489</v>
+        <v>0.001663252261012493</v>
       </c>
       <c r="M10" t="n">
-        <v>6.943582682521808</v>
+        <v>6.937077819523223</v>
       </c>
       <c r="N10" t="n">
-        <v>73.20467819168483</v>
+        <v>72.99751752635069</v>
       </c>
       <c r="O10" t="n">
-        <v>8.555973246316565</v>
+        <v>8.543858468300531</v>
       </c>
       <c r="P10" t="n">
-        <v>348.6944777574905</v>
+        <v>348.6813261974818</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -35336,28 +35582,28 @@
         <v>0.0414</v>
       </c>
       <c r="I11" t="n">
-        <v>0.007923361645354909</v>
+        <v>0.008457459257105424</v>
       </c>
       <c r="J11" t="n">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="K11" t="n">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="L11" t="n">
-        <v>4.910657356393955e-05</v>
+        <v>5.657370976641651e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>6.292366924585895</v>
+        <v>6.277023774043231</v>
       </c>
       <c r="N11" t="n">
-        <v>68.65971654851202</v>
+        <v>68.3507275149574</v>
       </c>
       <c r="O11" t="n">
-        <v>8.286115890362144</v>
+        <v>8.26744987979712</v>
       </c>
       <c r="P11" t="n">
-        <v>357.0485676007614</v>
+        <v>357.0433815848131</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -35394,7 +35640,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L707"/>
+  <dimension ref="A1:L712"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73608,6 +73854,288 @@
         </is>
       </c>
     </row>
+    <row r="708">
+      <c r="A708" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-06 22:00:23+00:00</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr"/>
+      <c r="C708" t="inlineStr"/>
+      <c r="D708" t="inlineStr">
+        <is>
+          <t>-39.858551881251785,176.98427940235817</t>
+        </is>
+      </c>
+      <c r="E708" t="inlineStr">
+        <is>
+          <t>-39.859050980053624,176.98369753173486</t>
+        </is>
+      </c>
+      <c r="F708" t="inlineStr">
+        <is>
+          <t>-39.85955007277033,176.98309027423474</t>
+        </is>
+      </c>
+      <c r="G708" t="inlineStr">
+        <is>
+          <t>-39.8600901087881,176.98252641092182</t>
+        </is>
+      </c>
+      <c r="H708" t="inlineStr">
+        <is>
+          <t>-39.86063588962525,176.98196841468152</t>
+        </is>
+      </c>
+      <c r="I708" t="inlineStr">
+        <is>
+          <t>-39.861235504177905,176.98152043536462</t>
+        </is>
+      </c>
+      <c r="J708" t="inlineStr">
+        <is>
+          <t>-39.86186539382182,176.9811505062327</t>
+        </is>
+      </c>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>-39.86251253565593,176.98083752111395</t>
+        </is>
+      </c>
+      <c r="L708" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-22 22:00:26+00:00</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>-39.85776866517101,176.98575739897373</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>-39.85812170857316,176.98498411685054</t>
+        </is>
+      </c>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>-39.858591802320184,176.98431920540773</t>
+        </is>
+      </c>
+      <c r="E709" t="inlineStr">
+        <is>
+          <t>-39.85906164208949,176.98371319360527</t>
+        </is>
+      </c>
+      <c r="F709" t="inlineStr">
+        <is>
+          <t>-39.85953516649006,176.98306129638146</t>
+        </is>
+      </c>
+      <c r="G709" t="inlineStr">
+        <is>
+          <t>-39.860101275855456,176.98254895768844</t>
+        </is>
+      </c>
+      <c r="H709" t="inlineStr">
+        <is>
+          <t>-39.86067335336947,176.9820471462692</t>
+        </is>
+      </c>
+      <c r="I709" t="inlineStr">
+        <is>
+          <t>-39.86122217220085,176.98148872179218</t>
+        </is>
+      </c>
+      <c r="J709" t="inlineStr"/>
+      <c r="K709" t="inlineStr"/>
+      <c r="L709" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-08 22:00:23+00:00</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>-39.857659571259994,176.98566038049762</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>-39.858028750412906,176.9849014486128</t>
+        </is>
+      </c>
+      <c r="D710" t="inlineStr">
+        <is>
+          <t>-39.85844443978689,176.9841722788369</t>
+        </is>
+      </c>
+      <c r="E710" t="inlineStr">
+        <is>
+          <t>-39.85899040296672,176.9836085479036</t>
+        </is>
+      </c>
+      <c r="F710" t="inlineStr">
+        <is>
+          <t>-39.859503170407464,176.98299909599478</t>
+        </is>
+      </c>
+      <c r="G710" t="inlineStr">
+        <is>
+          <t>-39.85999608147465,176.9823365665873</t>
+        </is>
+      </c>
+      <c r="H710" t="inlineStr">
+        <is>
+          <t>-39.86055283848295,176.98179388004692</t>
+        </is>
+      </c>
+      <c r="I710" t="inlineStr">
+        <is>
+          <t>-39.861180311209495,176.98138914476533</t>
+        </is>
+      </c>
+      <c r="J710" t="inlineStr">
+        <is>
+          <t>-39.86180894315523,176.98099491566646</t>
+        </is>
+      </c>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>-39.862464040395864,176.980701590339</t>
+        </is>
+      </c>
+      <c r="L710" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-24 22:00:45+00:00</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>-39.85770758743563,176.98570308178802</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>-39.858120521151854,176.98498306086796</t>
+        </is>
+      </c>
+      <c r="D711" t="inlineStr">
+        <is>
+          <t>-39.85845332700034,176.98418113973372</t>
+        </is>
+      </c>
+      <c r="E711" t="inlineStr">
+        <is>
+          <t>-39.85905622172517,176.98370523142472</t>
+        </is>
+      </c>
+      <c r="F711" t="inlineStr">
+        <is>
+          <t>-39.859575225762434,176.983139171789</t>
+        </is>
+      </c>
+      <c r="G711" t="inlineStr">
+        <is>
+          <t>-39.860063480142735,176.98247264666324</t>
+        </is>
+      </c>
+      <c r="H711" t="inlineStr">
+        <is>
+          <t>-39.860586520857154,176.9818646645133</t>
+        </is>
+      </c>
+      <c r="I711" t="inlineStr">
+        <is>
+          <t>-39.861199121276684,176.9814338892582</t>
+        </is>
+      </c>
+      <c r="J711" t="inlineStr">
+        <is>
+          <t>-39.861860756674304,176.98113772519267</t>
+        </is>
+      </c>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>-39.86249435467805,176.98078656029554</t>
+        </is>
+      </c>
+      <c r="L711" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-25 21:54:19+00:00</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr"/>
+      <c r="C712" t="inlineStr"/>
+      <c r="D712" t="inlineStr"/>
+      <c r="E712" t="inlineStr">
+        <is>
+          <t>-39.859047406186306,176.983692281947</t>
+        </is>
+      </c>
+      <c r="F712" t="inlineStr">
+        <is>
+          <t>-39.85956786182494,176.98312485624606</t>
+        </is>
+      </c>
+      <c r="G712" t="inlineStr">
+        <is>
+          <t>-39.86002751197114,176.98240002569347</t>
+        </is>
+      </c>
+      <c r="H712" t="inlineStr">
+        <is>
+          <t>-39.8605774250001,176.98184554929492</t>
+        </is>
+      </c>
+      <c r="I712" t="inlineStr">
+        <is>
+          <t>-39.861207159866495,176.9814530110938</t>
+        </is>
+      </c>
+      <c r="J712" t="inlineStr">
+        <is>
+          <t>-39.861870644144076,176.9811649773296</t>
+        </is>
+      </c>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>-39.86250100718,176.98080520707853</t>
+        </is>
+      </c>
+      <c r="L712" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0298/nzd0298.xlsx
+++ b/data/nzd0298/nzd0298.xlsx
@@ -34734,7 +34734,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34825,35 +34825,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -34912,27 +34917,28 @@
       <c r="P2" t="n">
         <v>342.2326018435672</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (176.98345926791683 -39.8551843747413, 176.98944385481934 -39.8619136211417)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>176.9834592679168</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-39.8551843747413</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>176.9894438548193</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-39.8619136211417</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>176.9864515613681</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-39.8585489979415</v>
       </c>
     </row>
@@ -34989,27 +34995,28 @@
       <c r="P3" t="n">
         <v>337.9665814242033</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (176.98270332882257 -39.855556904458034, 176.9886878933256 -39.86228616578037)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>176.9827033288226</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-39.85555690445803</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>176.9886878933256</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-39.86228616578037</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>176.9856956110741</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-39.8589215351192</v>
       </c>
     </row>
@@ -35066,27 +35073,28 @@
       <c r="P4" t="n">
         <v>341.8147305095055</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (176.98176523956113 -39.85603013535542, 176.9882156015174 -39.862499444779985)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>176.9817652395611</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-39.85603013535542</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>176.9882156015174</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-39.86249944477998</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>176.9849904205392</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-39.8592647900677</v>
       </c>
     </row>
@@ -35143,27 +35151,28 @@
       <c r="P5" t="n">
         <v>355.867658234165</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (176.98049561173957 -39.856871109699085, 176.98843196929673 -39.862273756535394)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>176.9804956117396</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-39.85687110969909</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>176.9884319692967</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-39.86227375653539</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>176.9844637905181</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-39.85957243311724</v>
       </c>
     </row>
@@ -35220,27 +35229,28 @@
       <c r="P6" t="n">
         <v>350.1473193410029</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (176.9796324108179 -39.85777123888005, 176.9884415046443 -39.862302515564046)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>176.9796324108179</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-39.85777123888005</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>176.9884415046443</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-39.86230251556405</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>176.9840369577311</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-39.86003687722204</v>
       </c>
     </row>
@@ -35297,27 +35307,28 @@
       <c r="P7" t="n">
         <v>344.2616537934513</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (176.97907190102273 -39.85837904504408, 176.98798194711347 -39.86279191023261)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>176.9790719010227</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-39.85837904504408</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>176.9879819471135</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-39.86279191023261</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>176.9835269240681</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-39.86058547763835</v>
       </c>
     </row>
@@ -35374,27 +35385,28 @@
       <c r="P8" t="n">
         <v>340.3655159856885</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (176.978536434004 -39.85900271652203, 176.9875486687964 -39.86329096363817)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>176.978536434004</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-39.85900271652203</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>176.9875486687964</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-39.86329096363817</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>176.9830425514002</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-39.8611468400801</v>
       </c>
     </row>
@@ -35451,27 +35463,28 @@
       <c r="P9" t="n">
         <v>343.37079561011</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (176.97792977551927 -39.859725946298404, 176.9872286958093 -39.86363495057285)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>176.9779297755193</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-39.8597259462984</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>176.9872286958093</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-39.86363495057285</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>176.9825792356643</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-39.86168044843563</v>
       </c>
     </row>
@@ -35528,27 +35541,28 @@
       <c r="P10" t="n">
         <v>348.6813261974818</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (176.97740562579722 -39.86050660709866, 176.98698980419903 -39.863983757272976)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>176.9774056257972</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-39.86050660709866</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>176.986989804199</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-39.86398375727298</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>176.9821977149981</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-39.86224518218582</v>
       </c>
     </row>
@@ -35605,27 +35619,28 @@
       <c r="P11" t="n">
         <v>357.0433815848131</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (176.976993176417 -39.86114091998464, 176.9866063465226 -39.864570431197606)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>176.976993176417</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-39.86114091998464</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>176.9866063465226</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-39.86457043119761</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>176.9817997614698</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-39.86285567559112</v>
       </c>
     </row>

--- a/data/nzd0298/nzd0298.xlsx
+++ b/data/nzd0298/nzd0298.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L712"/>
+  <dimension ref="A1:L717"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27532,6 +27532,216 @@
         </is>
       </c>
     </row>
+    <row r="713">
+      <c r="A713" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-05 21:54:32+00:00</t>
+        </is>
+      </c>
+      <c r="B713" t="n">
+        <v>344.45</v>
+      </c>
+      <c r="C713" t="n">
+        <v>336.3914285714285</v>
+      </c>
+      <c r="D713" t="n">
+        <v>337.6314285714286</v>
+      </c>
+      <c r="E713" t="n">
+        <v>357.79</v>
+      </c>
+      <c r="F713" t="n">
+        <v>342.6814285714286</v>
+      </c>
+      <c r="G713" t="n">
+        <v>335.1414285714285</v>
+      </c>
+      <c r="H713" t="n">
+        <v>331.9014285714285</v>
+      </c>
+      <c r="I713" t="n">
+        <v>339.3314285714285</v>
+      </c>
+      <c r="J713" t="n">
+        <v>351.38</v>
+      </c>
+      <c r="K713" t="n">
+        <v>358.36</v>
+      </c>
+      <c r="L713" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-13 21:54:16+00:00</t>
+        </is>
+      </c>
+      <c r="B714" t="n">
+        <v>337.02</v>
+      </c>
+      <c r="C714" t="n">
+        <v>335.7257142857143</v>
+      </c>
+      <c r="D714" t="n">
+        <v>339.7757142857143</v>
+      </c>
+      <c r="E714" t="n">
+        <v>355.06</v>
+      </c>
+      <c r="F714" t="n">
+        <v>347.1157142857143</v>
+      </c>
+      <c r="G714" t="n">
+        <v>335.7457142857143</v>
+      </c>
+      <c r="H714" t="n">
+        <v>334.2957142857143</v>
+      </c>
+      <c r="I714" t="n">
+        <v>332.5557142857143</v>
+      </c>
+      <c r="J714" t="n">
+        <v>339.75</v>
+      </c>
+      <c r="K714" t="n">
+        <v>349.83</v>
+      </c>
+      <c r="L714" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-05 21:59:53+00:00</t>
+        </is>
+      </c>
+      <c r="B715" t="n">
+        <v>343.48</v>
+      </c>
+      <c r="C715" t="n">
+        <v>337.6085714285715</v>
+      </c>
+      <c r="D715" t="n">
+        <v>345.5185714285714</v>
+      </c>
+      <c r="E715" t="n">
+        <v>352.53</v>
+      </c>
+      <c r="F715" t="n">
+        <v>352.7685714285714</v>
+      </c>
+      <c r="G715" t="n">
+        <v>342.4385714285714</v>
+      </c>
+      <c r="H715" t="n">
+        <v>339.0985714285715</v>
+      </c>
+      <c r="I715" t="n">
+        <v>340.7285714285715</v>
+      </c>
+      <c r="J715" t="n">
+        <v>345.69</v>
+      </c>
+      <c r="K715" t="n">
+        <v>347.93</v>
+      </c>
+      <c r="L715" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-06 21:54:19+00:00</t>
+        </is>
+      </c>
+      <c r="B716" t="n">
+        <v>342.4</v>
+      </c>
+      <c r="C716" t="n">
+        <v>337.26</v>
+      </c>
+      <c r="D716" t="n">
+        <v>342.28</v>
+      </c>
+      <c r="E716" t="n">
+        <v>355.04</v>
+      </c>
+      <c r="F716" t="n">
+        <v>349.58</v>
+      </c>
+      <c r="G716" t="n">
+        <v>339.6</v>
+      </c>
+      <c r="H716" t="n">
+        <v>336.16</v>
+      </c>
+      <c r="I716" t="n">
+        <v>338.71</v>
+      </c>
+      <c r="J716" t="n">
+        <v>346.08</v>
+      </c>
+      <c r="K716" t="n">
+        <v>345.5</v>
+      </c>
+      <c r="L716" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-13 22:00:07+00:00</t>
+        </is>
+      </c>
+      <c r="B717" t="n">
+        <v>351.77</v>
+      </c>
+      <c r="C717" t="n">
+        <v>345.5242857142857</v>
+      </c>
+      <c r="D717" t="n">
+        <v>349.2242857142857</v>
+      </c>
+      <c r="E717" t="n">
+        <v>360.46</v>
+      </c>
+      <c r="F717" t="n">
+        <v>360.1242857142857</v>
+      </c>
+      <c r="G717" t="n">
+        <v>345.9542857142857</v>
+      </c>
+      <c r="H717" t="n">
+        <v>346.7642857142857</v>
+      </c>
+      <c r="I717" t="n">
+        <v>345.2642857142857</v>
+      </c>
+      <c r="J717" t="n">
+        <v>353.95</v>
+      </c>
+      <c r="K717" t="n">
+        <v>357.93</v>
+      </c>
+      <c r="L717" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -27543,7 +27753,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B717"/>
+  <dimension ref="A1:B722"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34721,6 +34931,56 @@
       </c>
       <c r="B717" t="n">
         <v>-0.58</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>2025-03-05 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B718" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>2025-03-13 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B719" t="n">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>2025-04-05 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B720" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>2025-04-06 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B721" t="n">
+        <v>-0.14</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>2025-04-13 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B722" t="n">
+        <v>-0.15</v>
       </c>
     </row>
   </sheetData>
@@ -34894,28 +35154,28 @@
         <v>0.0265</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.5594574648277723</v>
+        <v>-0.530632163744609</v>
       </c>
       <c r="J2" t="n">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="K2" t="n">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05086353619174366</v>
+        <v>0.04649099744928897</v>
       </c>
       <c r="M2" t="n">
-        <v>13.29231381898835</v>
+        <v>13.29384915762964</v>
       </c>
       <c r="N2" t="n">
-        <v>307.9509644592056</v>
+        <v>307.5975561057293</v>
       </c>
       <c r="O2" t="n">
-        <v>17.54853168955185</v>
+        <v>17.53845934242028</v>
       </c>
       <c r="P2" t="n">
-        <v>342.2326018435672</v>
+        <v>341.942435106064</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -34972,28 +35232,28 @@
         <v>0.0357</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2238292072975073</v>
+        <v>-0.2116963713891526</v>
       </c>
       <c r="J3" t="n">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="K3" t="n">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0282480631869485</v>
+        <v>0.02572191440831895</v>
       </c>
       <c r="M3" t="n">
-        <v>7.701368912237554</v>
+        <v>7.679910684804503</v>
       </c>
       <c r="N3" t="n">
-        <v>92.85564704740334</v>
+        <v>92.43697743919736</v>
       </c>
       <c r="O3" t="n">
-        <v>9.63616350252544</v>
+        <v>9.614415085651199</v>
       </c>
       <c r="P3" t="n">
-        <v>337.9665814242033</v>
+        <v>337.8457636214943</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -35050,28 +35310,28 @@
         <v>0.0362</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1725128775150011</v>
+        <v>-0.1631838878778222</v>
       </c>
       <c r="J4" t="n">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="K4" t="n">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01296372958459791</v>
+        <v>0.01178156892014715</v>
       </c>
       <c r="M4" t="n">
-        <v>8.759181893317935</v>
+        <v>8.72634633818828</v>
       </c>
       <c r="N4" t="n">
-        <v>123.5541749962604</v>
+        <v>122.8578082364796</v>
       </c>
       <c r="O4" t="n">
-        <v>11.11549256651546</v>
+        <v>11.08412415288099</v>
       </c>
       <c r="P4" t="n">
-        <v>341.8147305095055</v>
+        <v>341.7213640308291</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -35128,28 +35388,28 @@
         <v>0.0413</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.05267471533748248</v>
+        <v>-0.0500041530909462</v>
       </c>
       <c r="J5" t="n">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="K5" t="n">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001847925701369268</v>
+        <v>0.001692365208630364</v>
       </c>
       <c r="M5" t="n">
-        <v>7.136495860075694</v>
+        <v>7.095784791104279</v>
       </c>
       <c r="N5" t="n">
-        <v>81.79007331152464</v>
+        <v>81.1789215890285</v>
       </c>
       <c r="O5" t="n">
-        <v>9.043786447695712</v>
+        <v>9.009934605147171</v>
       </c>
       <c r="P5" t="n">
-        <v>355.867658234165</v>
+        <v>355.8410777171558</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -35206,28 +35466,28 @@
         <v>0.0357</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.233251497624117</v>
+        <v>-0.2232474107816221</v>
       </c>
       <c r="J6" t="n">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="K6" t="n">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02433312557851408</v>
+        <v>0.02259106388806165</v>
       </c>
       <c r="M6" t="n">
-        <v>8.423346246434489</v>
+        <v>8.411922822067705</v>
       </c>
       <c r="N6" t="n">
-        <v>118.633673463583</v>
+        <v>118.2511992764319</v>
       </c>
       <c r="O6" t="n">
-        <v>10.89190862354174</v>
+        <v>10.87433672811505</v>
       </c>
       <c r="P6" t="n">
-        <v>350.1473193410029</v>
+        <v>350.0474114458186</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -35284,28 +35544,28 @@
         <v>0.0368</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2979856218729189</v>
+        <v>-0.2929281077549239</v>
       </c>
       <c r="J7" t="n">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="K7" t="n">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04042323878342979</v>
+        <v>0.03967959196205051</v>
       </c>
       <c r="M7" t="n">
-        <v>8.427607524658676</v>
+        <v>8.393288459084294</v>
       </c>
       <c r="N7" t="n">
-        <v>113.408068156833</v>
+        <v>112.6830328749577</v>
       </c>
       <c r="O7" t="n">
-        <v>10.64932242712338</v>
+        <v>10.61522646366801</v>
       </c>
       <c r="P7" t="n">
-        <v>344.2616537934513</v>
+        <v>344.2107903749341</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -35362,28 +35622,28 @@
         <v>0.0361</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1185828060183849</v>
+        <v>-0.1180253472883215</v>
       </c>
       <c r="J8" t="n">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="K8" t="n">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="L8" t="n">
-        <v>0.006512743579975777</v>
+        <v>0.006551648262721255</v>
       </c>
       <c r="M8" t="n">
-        <v>8.427433302516226</v>
+        <v>8.390663138221077</v>
       </c>
       <c r="N8" t="n">
-        <v>114.8527346455187</v>
+        <v>114.0882533285622</v>
       </c>
       <c r="O8" t="n">
-        <v>10.71693681261202</v>
+        <v>10.68121029324684</v>
       </c>
       <c r="P8" t="n">
-        <v>340.3655159856885</v>
+        <v>340.3597480137909</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -35440,28 +35700,28 @@
         <v>0.0403</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04100547852160376</v>
+        <v>0.03278107760550152</v>
       </c>
       <c r="J9" t="n">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="K9" t="n">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0008998521452160402</v>
+        <v>0.0005830497462167017</v>
       </c>
       <c r="M9" t="n">
-        <v>7.898264744442155</v>
+        <v>7.877688802587491</v>
       </c>
       <c r="N9" t="n">
-        <v>100.24285569674</v>
+        <v>99.75161705147757</v>
       </c>
       <c r="O9" t="n">
-        <v>10.01213542141435</v>
+        <v>9.987573131220495</v>
       </c>
       <c r="P9" t="n">
-        <v>343.37079561011</v>
+        <v>343.4534344119236</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -35518,28 +35778,28 @@
         <v>0.0409</v>
       </c>
       <c r="I10" t="n">
-        <v>0.04737462328728259</v>
+        <v>0.04331248809084607</v>
       </c>
       <c r="J10" t="n">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="K10" t="n">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001663252261012493</v>
+        <v>0.001409494268032385</v>
       </c>
       <c r="M10" t="n">
-        <v>6.937077819523223</v>
+        <v>6.919786534102582</v>
       </c>
       <c r="N10" t="n">
-        <v>72.99751752635069</v>
+        <v>72.6388327286724</v>
       </c>
       <c r="O10" t="n">
-        <v>8.543858468300531</v>
+        <v>8.522841822342615</v>
       </c>
       <c r="P10" t="n">
-        <v>348.6813261974818</v>
+        <v>348.7218311113031</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -35596,28 +35856,28 @@
         <v>0.0414</v>
       </c>
       <c r="I11" t="n">
-        <v>0.008457459257105424</v>
+        <v>-1.381934492367497e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="K11" t="n">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="L11" t="n">
-        <v>5.657370976641651e-05</v>
+        <v>1.525435333604719e-10</v>
       </c>
       <c r="M11" t="n">
-        <v>6.277023774043231</v>
+        <v>6.278853427395079</v>
       </c>
       <c r="N11" t="n">
-        <v>68.3507275149574</v>
+        <v>68.24561996181178</v>
       </c>
       <c r="O11" t="n">
-        <v>8.26744987979712</v>
+        <v>8.261090724705291</v>
       </c>
       <c r="P11" t="n">
-        <v>357.0433815848131</v>
+        <v>357.1283780559174</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -35655,7 +35915,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L712"/>
+  <dimension ref="A1:L717"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74151,6 +74411,316 @@
         </is>
       </c>
     </row>
+    <row r="713">
+      <c r="A713" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-05 21:54:32+00:00</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>-39.857740686673914,176.98573251733444</t>
+        </is>
+      </c>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>-39.85805342122721,176.98492338848428</t>
+        </is>
+      </c>
+      <c r="D713" t="inlineStr">
+        <is>
+          <t>-39.8584389056616,176.9841667611007</t>
+        </is>
+      </c>
+      <c r="E713" t="inlineStr">
+        <is>
+          <t>-39.85900231587089,176.98362604716982</t>
+        </is>
+      </c>
+      <c r="F713" t="inlineStr">
+        <is>
+          <t>-39.859482962336536,176.9829598115691</t>
+        </is>
+      </c>
+      <c r="G713" t="inlineStr">
+        <is>
+          <t>-39.86000933329372,176.98236332238753</t>
+        </is>
+      </c>
+      <c r="H713" t="inlineStr">
+        <is>
+          <t>-39.860571624448056,176.98183335926586</t>
+        </is>
+      </c>
+      <c r="I713" t="inlineStr">
+        <is>
+          <t>-39.86118804205087,176.98140753451477</t>
+        </is>
+      </c>
+      <c r="J713" t="inlineStr">
+        <is>
+          <t>-39.86185328358215,176.98111712765228</t>
+        </is>
+      </c>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>-39.86249552642579,176.98078984467185</t>
+        </is>
+      </c>
+      <c r="L713" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-13 21:54:16+00:00</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>-39.8576855460096,176.98568348010613</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>-39.858048480703566,176.98491899485165</t>
+        </is>
+      </c>
+      <c r="D714" t="inlineStr">
+        <is>
+          <t>-39.85845420349153,176.98418201362966</t>
+        </is>
+      </c>
+      <c r="E714" t="inlineStr">
+        <is>
+          <t>-39.858986054755974,176.98360216067292</t>
+        </is>
+      </c>
+      <c r="F714" t="inlineStr">
+        <is>
+          <t>-39.85950511129487,176.9830028690764</t>
+        </is>
+      </c>
+      <c r="G714" t="inlineStr">
+        <is>
+          <t>-39.86001227273668,176.9823692572098</t>
+        </is>
+      </c>
+      <c r="H714" t="inlineStr">
+        <is>
+          <t>-39.860582941938304,176.98185714330577</t>
+        </is>
+      </c>
+      <c r="I714" t="inlineStr">
+        <is>
+          <t>-39.861158848260025,176.98133808980492</t>
+        </is>
+      </c>
+      <c r="J714" t="inlineStr">
+        <is>
+          <t>-39.861808713213165,176.9809942818968</t>
+        </is>
+      </c>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>-39.862463284427875,176.98069947138842</t>
+        </is>
+      </c>
+      <c r="L714" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-05 21:59:53+00:00</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>-39.85773348796143,176.98572611543062</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>-39.85806245411541,176.9849314214795</t>
+        </is>
+      </c>
+      <c r="D715" t="inlineStr">
+        <is>
+          <t>-39.85849517435018,176.9842228632081</t>
+        </is>
+      </c>
+      <c r="E715" t="inlineStr">
+        <is>
+          <t>-39.858970984926586,176.98358002411257</t>
+        </is>
+      </c>
+      <c r="F715" t="inlineStr">
+        <is>
+          <t>-39.85953334691006,176.98305775911442</t>
+        </is>
+      </c>
+      <c r="G715" t="inlineStr">
+        <is>
+          <t>-39.860044828956376,176.9824349892578</t>
+        </is>
+      </c>
+      <c r="H715" t="inlineStr">
+        <is>
+          <t>-39.860605644429675,176.98190485331799</t>
+        </is>
+      </c>
+      <c r="I715" t="inlineStr">
+        <is>
+          <t>-39.86119406176436,176.98142185392436</t>
+        </is>
+      </c>
+      <c r="J715" t="inlineStr">
+        <is>
+          <t>-39.86183147746021,176.9810570251099</t>
+        </is>
+      </c>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>-39.862456102729986,176.98067934135963</t>
+        </is>
+      </c>
+      <c r="L715" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-06 21:54:19+00:00</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>-39.857725472899595,176.98571898753931</t>
+        </is>
+      </c>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>-39.858059867232,176.98492912095014</t>
+        </is>
+      </c>
+      <c r="D716" t="inlineStr">
+        <is>
+          <t>-39.8584720696417,176.984199826885</t>
+        </is>
+      </c>
+      <c r="E716" t="inlineStr">
+        <is>
+          <t>-39.8589859356269,176.9836019856803</t>
+        </is>
+      </c>
+      <c r="F716" t="inlineStr">
+        <is>
+          <t>-39.85951742022842,176.9830267976319</t>
+        </is>
+      </c>
+      <c r="G716" t="inlineStr">
+        <is>
+          <t>-39.86003102123273,176.98240711100507</t>
+        </is>
+      </c>
+      <c r="H716" t="inlineStr">
+        <is>
+          <t>-39.860591754180945,176.98187566250678</t>
+        </is>
+      </c>
+      <c r="I716" t="inlineStr">
+        <is>
+          <t>-39.86118536457033,176.981401165453</t>
+        </is>
+      </c>
+      <c r="J716" t="inlineStr">
+        <is>
+          <t>-39.86183297208122,176.98106114461515</t>
+        </is>
+      </c>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>-39.86244691771094,176.98065359611812</t>
+        </is>
+      </c>
+      <c r="L716" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-13 22:00:07+00:00</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>-39.857795010964715,176.98578082865308</t>
+        </is>
+      </c>
+      <c r="C717" t="inlineStr">
+        <is>
+          <t>-39.85812119967831,176.9849836642866</t>
+        </is>
+      </c>
+      <c r="D717" t="inlineStr">
+        <is>
+          <t>-39.8585216117559,176.98424922239028</t>
+        </is>
+      </c>
+      <c r="E717" t="inlineStr">
+        <is>
+          <t>-39.85901821959334,176.98364940869962</t>
+        </is>
+      </c>
+      <c r="F717" t="inlineStr">
+        <is>
+          <t>-39.859570088131825,176.9831291842006</t>
+        </is>
+      </c>
+      <c r="G717" t="inlineStr">
+        <is>
+          <t>-39.8600619305104,176.98246951789892</t>
+        </is>
+      </c>
+      <c r="H717" t="inlineStr">
+        <is>
+          <t>-39.860641879236425,176.9819810020801</t>
+        </is>
+      </c>
+      <c r="I717" t="inlineStr">
+        <is>
+          <t>-39.861213604277154,176.98146834077676</t>
+        </is>
+      </c>
+      <c r="J717" t="inlineStr">
+        <is>
+          <t>-39.861863132733546,176.98114427415513</t>
+        </is>
+      </c>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>-39.86249390109827,176.9807852889241</t>
+        </is>
+      </c>
+      <c r="L717" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0298/nzd0298.xlsx
+++ b/data/nzd0298/nzd0298.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L717"/>
+  <dimension ref="A1:L721"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27742,6 +27742,174 @@
         </is>
       </c>
     </row>
+    <row r="718">
+      <c r="A718" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-07 21:59:37+00:00</t>
+        </is>
+      </c>
+      <c r="B718" t="n">
+        <v>340.14</v>
+      </c>
+      <c r="C718" t="n">
+        <v>338.5371428571428</v>
+      </c>
+      <c r="D718" t="n">
+        <v>339.2071428571429</v>
+      </c>
+      <c r="E718" t="n">
+        <v>351.88</v>
+      </c>
+      <c r="F718" t="n">
+        <v>351.0371428571428</v>
+      </c>
+      <c r="G718" t="n">
+        <v>346.0771428571429</v>
+      </c>
+      <c r="H718" t="n">
+        <v>330.3671428571428</v>
+      </c>
+      <c r="I718" t="n">
+        <v>345.0771428571429</v>
+      </c>
+      <c r="J718" t="n">
+        <v>356.89</v>
+      </c>
+      <c r="K718" t="n">
+        <v>364.81</v>
+      </c>
+      <c r="L718" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-15 22:00:11+00:00</t>
+        </is>
+      </c>
+      <c r="B719" t="n">
+        <v>334.09</v>
+      </c>
+      <c r="C719" t="n">
+        <v>339.14</v>
+      </c>
+      <c r="D719" t="n">
+        <v>344.43</v>
+      </c>
+      <c r="E719" t="n">
+        <v>352.64</v>
+      </c>
+      <c r="F719" t="n">
+        <v>352.88</v>
+      </c>
+      <c r="G719" t="n">
+        <v>344.51</v>
+      </c>
+      <c r="H719" t="n">
+        <v>337.62</v>
+      </c>
+      <c r="I719" t="n">
+        <v>340.15</v>
+      </c>
+      <c r="J719" t="n">
+        <v>358.19</v>
+      </c>
+      <c r="K719" t="n">
+        <v>366.1</v>
+      </c>
+      <c r="L719" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:53:53+00:00</t>
+        </is>
+      </c>
+      <c r="B720" t="n">
+        <v>338.71</v>
+      </c>
+      <c r="C720" t="n">
+        <v>339.39</v>
+      </c>
+      <c r="D720" t="n">
+        <v>345.62</v>
+      </c>
+      <c r="E720" t="n">
+        <v>356.84</v>
+      </c>
+      <c r="F720" t="n">
+        <v>353.21</v>
+      </c>
+      <c r="G720" t="n">
+        <v>349.24</v>
+      </c>
+      <c r="H720" t="n">
+        <v>339.19</v>
+      </c>
+      <c r="I720" t="n">
+        <v>349.81</v>
+      </c>
+      <c r="J720" t="n">
+        <v>357.87</v>
+      </c>
+      <c r="K720" t="n">
+        <v>374.8</v>
+      </c>
+      <c r="L720" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-24 21:53:57+00:00</t>
+        </is>
+      </c>
+      <c r="B721" t="n">
+        <v>341.57</v>
+      </c>
+      <c r="C721" t="n">
+        <v>338.0428571428571</v>
+      </c>
+      <c r="D721" t="n">
+        <v>340.2428571428572</v>
+      </c>
+      <c r="E721" t="n">
+        <v>364.58</v>
+      </c>
+      <c r="F721" t="n">
+        <v>361.2528571428572</v>
+      </c>
+      <c r="G721" t="n">
+        <v>346.3828571428572</v>
+      </c>
+      <c r="H721" t="n">
+        <v>334.2528571428572</v>
+      </c>
+      <c r="I721" t="n">
+        <v>349.1328571428572</v>
+      </c>
+      <c r="J721" t="n">
+        <v>361.38</v>
+      </c>
+      <c r="K721" t="n">
+        <v>362.38</v>
+      </c>
+      <c r="L721" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -27753,7 +27921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B722"/>
+  <dimension ref="A1:B726"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34981,6 +35149,46 @@
       </c>
       <c r="B722" t="n">
         <v>-0.15</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>2025-05-07 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B723" t="n">
+        <v>-0.39</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>2025-05-15 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B724" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B725" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>2025-05-24 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B726" t="n">
+        <v>-0.73</v>
       </c>
     </row>
   </sheetData>
@@ -35154,28 +35362,28 @@
         <v>0.0265</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.530632163744609</v>
+        <v>-0.5157919218143806</v>
       </c>
       <c r="J2" t="n">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="K2" t="n">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04649099744928897</v>
+        <v>0.04457673042935428</v>
       </c>
       <c r="M2" t="n">
-        <v>13.29384915762964</v>
+        <v>13.26048793550536</v>
       </c>
       <c r="N2" t="n">
-        <v>307.5975561057293</v>
+        <v>306.1815570946158</v>
       </c>
       <c r="O2" t="n">
-        <v>17.53845934242028</v>
+        <v>17.49804437914751</v>
       </c>
       <c r="P2" t="n">
-        <v>341.942435106064</v>
+        <v>341.7921329833824</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -35232,28 +35440,28 @@
         <v>0.0357</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2116963713891526</v>
+        <v>-0.2019427897509524</v>
       </c>
       <c r="J3" t="n">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="K3" t="n">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02572191440831895</v>
+        <v>0.02375859822402737</v>
       </c>
       <c r="M3" t="n">
-        <v>7.679910684804503</v>
+        <v>7.663882163763749</v>
       </c>
       <c r="N3" t="n">
-        <v>92.43697743919736</v>
+        <v>92.02168879950388</v>
       </c>
       <c r="O3" t="n">
-        <v>9.614415085651199</v>
+        <v>9.592793586828806</v>
       </c>
       <c r="P3" t="n">
-        <v>337.8457636214943</v>
+        <v>337.7480747237435</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -35310,28 +35518,28 @@
         <v>0.0362</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1631838878778222</v>
+        <v>-0.1566544078840555</v>
       </c>
       <c r="J4" t="n">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="K4" t="n">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01178156892014715</v>
+        <v>0.01100124306259975</v>
       </c>
       <c r="M4" t="n">
-        <v>8.72634633818828</v>
+        <v>8.695678349245783</v>
       </c>
       <c r="N4" t="n">
-        <v>122.8578082364796</v>
+        <v>122.1954495946129</v>
       </c>
       <c r="O4" t="n">
-        <v>11.08412415288099</v>
+        <v>11.05420506389369</v>
       </c>
       <c r="P4" t="n">
-        <v>341.7213640308291</v>
+        <v>341.655655489615</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -35388,28 +35596,28 @@
         <v>0.0413</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.0500041530909462</v>
+        <v>-0.04752485451614238</v>
       </c>
       <c r="J5" t="n">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="K5" t="n">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001692365208630364</v>
+        <v>0.001546015902096354</v>
       </c>
       <c r="M5" t="n">
-        <v>7.095784791104279</v>
+        <v>7.075697439199656</v>
       </c>
       <c r="N5" t="n">
-        <v>81.1789215890285</v>
+        <v>80.82630254185945</v>
       </c>
       <c r="O5" t="n">
-        <v>9.009934605147171</v>
+        <v>8.990344962339289</v>
       </c>
       <c r="P5" t="n">
-        <v>355.8410777171558</v>
+        <v>355.8161870144547</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -35466,28 +35674,28 @@
         <v>0.0357</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2232474107816221</v>
+        <v>-0.2102625598732089</v>
       </c>
       <c r="J6" t="n">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="K6" t="n">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02259106388806165</v>
+        <v>0.02022160063020684</v>
       </c>
       <c r="M6" t="n">
-        <v>8.411922822067705</v>
+        <v>8.42610864969803</v>
       </c>
       <c r="N6" t="n">
-        <v>118.2511992764319</v>
+        <v>118.2596524930073</v>
       </c>
       <c r="O6" t="n">
-        <v>10.87433672811505</v>
+        <v>10.87472539851041</v>
       </c>
       <c r="P6" t="n">
-        <v>350.0474114458186</v>
+        <v>349.9170427135318</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -35544,28 +35752,28 @@
         <v>0.0368</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2929281077549239</v>
+        <v>-0.2803927501910695</v>
       </c>
       <c r="J7" t="n">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="K7" t="n">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03967959196205051</v>
+        <v>0.03674518484352485</v>
       </c>
       <c r="M7" t="n">
-        <v>8.393288459084294</v>
+        <v>8.406125996551705</v>
       </c>
       <c r="N7" t="n">
-        <v>112.6830328749577</v>
+        <v>112.5913505550533</v>
       </c>
       <c r="O7" t="n">
-        <v>10.61522646366801</v>
+        <v>10.61090715043032</v>
       </c>
       <c r="P7" t="n">
-        <v>344.2107903749341</v>
+        <v>344.0841886251307</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -35622,28 +35830,28 @@
         <v>0.0361</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1180253472883215</v>
+        <v>-0.1205990813154289</v>
       </c>
       <c r="J8" t="n">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="K8" t="n">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="L8" t="n">
-        <v>0.006551648262721255</v>
+        <v>0.006927017901494525</v>
       </c>
       <c r="M8" t="n">
-        <v>8.390663138221077</v>
+        <v>8.35364570326534</v>
       </c>
       <c r="N8" t="n">
-        <v>114.0882533285622</v>
+        <v>113.4089528596428</v>
       </c>
       <c r="O8" t="n">
-        <v>10.68121029324684</v>
+        <v>10.64936396502828</v>
       </c>
       <c r="P8" t="n">
-        <v>340.3597480137909</v>
+        <v>340.3858455053287</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -35700,28 +35908,28 @@
         <v>0.0403</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03278107760550152</v>
+        <v>0.03502086725691959</v>
       </c>
       <c r="J9" t="n">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="K9" t="n">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0005830497462167017</v>
+        <v>0.0006736438737143802</v>
       </c>
       <c r="M9" t="n">
-        <v>7.877688802587491</v>
+        <v>7.850249167120669</v>
       </c>
       <c r="N9" t="n">
-        <v>99.75161705147757</v>
+        <v>99.2017951710373</v>
       </c>
       <c r="O9" t="n">
-        <v>9.987573131220495</v>
+        <v>9.960009797738017</v>
       </c>
       <c r="P9" t="n">
-        <v>343.4534344119236</v>
+        <v>343.4307357232017</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -35778,28 +35986,28 @@
         <v>0.0409</v>
       </c>
       <c r="I10" t="n">
-        <v>0.04331248809084607</v>
+        <v>0.05450531092877434</v>
       </c>
       <c r="J10" t="n">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="K10" t="n">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001409494268032385</v>
+        <v>0.002244486503362952</v>
       </c>
       <c r="M10" t="n">
-        <v>6.919786534102582</v>
+        <v>6.92778999185251</v>
       </c>
       <c r="N10" t="n">
-        <v>72.6388327286724</v>
+        <v>72.67323701473377</v>
       </c>
       <c r="O10" t="n">
-        <v>8.522841822342615</v>
+        <v>8.524859941062596</v>
       </c>
       <c r="P10" t="n">
-        <v>348.7218311113031</v>
+        <v>348.6093266148213</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -35856,28 +36064,28 @@
         <v>0.0414</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.381934492367497e-05</v>
+        <v>0.01241827886773086</v>
       </c>
       <c r="J11" t="n">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="K11" t="n">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="L11" t="n">
-        <v>1.525435333604719e-10</v>
+        <v>0.0001233880375911545</v>
       </c>
       <c r="M11" t="n">
-        <v>6.278853427395079</v>
+        <v>6.29620053050916</v>
       </c>
       <c r="N11" t="n">
-        <v>68.24561996181178</v>
+        <v>68.57458149188705</v>
       </c>
       <c r="O11" t="n">
-        <v>8.261090724705291</v>
+        <v>8.280977085579156</v>
       </c>
       <c r="P11" t="n">
-        <v>357.1283780559174</v>
+        <v>357.0028723648132</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -35915,7 +36123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L717"/>
+  <dimension ref="A1:L721"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74721,6 +74929,254 @@
         </is>
       </c>
     </row>
+    <row r="718">
+      <c r="A718" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-07 21:59:37+00:00</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>-39.85770870063886,176.9857040717723</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>-39.85806934540292,176.9849375499398</t>
+        </is>
+      </c>
+      <c r="D718" t="inlineStr">
+        <is>
+          <t>-39.858450147171766,176.98417796932085</t>
+        </is>
+      </c>
+      <c r="E718" t="inlineStr">
+        <is>
+          <t>-39.85896711323051,176.98357433685553</t>
+        </is>
+      </c>
+      <c r="F718" t="inlineStr">
+        <is>
+          <t>-39.859524698551795,176.98304094669476</t>
+        </is>
+      </c>
+      <c r="G718" t="inlineStr">
+        <is>
+          <t>-39.86006252812646,176.98247072450755</t>
+        </is>
+      </c>
+      <c r="H718" t="inlineStr">
+        <is>
+          <t>-39.86056437206785,176.98181811818463</t>
+        </is>
+      </c>
+      <c r="I718" t="inlineStr">
+        <is>
+          <t>-39.861212797956554,176.98146642273605</t>
+        </is>
+      </c>
+      <c r="J718" t="inlineStr">
+        <is>
+          <t>-39.86187439984786,176.98117532891843</t>
+        </is>
+      </c>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>-39.86251990631584,176.98085818091246</t>
+        </is>
+      </c>
+      <c r="L718" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-15 22:00:11+00:00</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>-39.85766380143388,176.98566414243263</t>
+        </is>
+      </c>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t>-39.858073819438594,176.98494152872544</t>
+        </is>
+      </c>
+      <c r="D719" t="inlineStr">
+        <is>
+          <t>-39.85848740823351,176.98421512007525</t>
+        </is>
+      </c>
+      <c r="E719" t="inlineStr">
+        <is>
+          <t>-39.858971640136645,176.9835809865715</t>
+        </is>
+      </c>
+      <c r="F719" t="inlineStr">
+        <is>
+          <t>-39.85953390348749,176.98305884110198</t>
+        </is>
+      </c>
+      <c r="G719" t="inlineStr">
+        <is>
+          <t>-39.86005490504604,176.98245533323367</t>
+        </is>
+      </c>
+      <c r="H719" t="inlineStr">
+        <is>
+          <t>-39.86059865541392,176.9818901656697</t>
+        </is>
+      </c>
+      <c r="I719" t="inlineStr">
+        <is>
+          <t>-39.86119156893845,176.9814159241072</t>
+        </is>
+      </c>
+      <c r="J719" t="inlineStr">
+        <is>
+          <t>-39.8618793819024,176.98118906061956</t>
+        </is>
+      </c>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>-39.862524782288716,176.9808718481661</t>
+        </is>
+      </c>
+      <c r="L719" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:53:53+00:00</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>-39.857698088101,176.98569463392354</t>
+        </is>
+      </c>
+      <c r="C720" t="inlineStr">
+        <is>
+          <t>-39.858075674785105,176.98494317869594</t>
+        </is>
+      </c>
+      <c r="D720" t="inlineStr">
+        <is>
+          <t>-39.858495897964694,176.98422358468122</t>
+        </is>
+      </c>
+      <c r="E720" t="inlineStr">
+        <is>
+          <t>-39.85899665724179,176.9836177350176</t>
+        </is>
+      </c>
+      <c r="F720" t="inlineStr">
+        <is>
+          <t>-39.85953555181287,176.9830620454498</t>
+        </is>
+      </c>
+      <c r="G720" t="inlineStr">
+        <is>
+          <t>-39.86007791326103,176.98250178767208</t>
+        </is>
+      </c>
+      <c r="H720" t="inlineStr">
+        <is>
+          <t>-39.86060607660064,176.98190576153982</t>
+        </is>
+      </c>
+      <c r="I720" t="inlineStr">
+        <is>
+          <t>-39.86123318985568,176.9815149301453</t>
+        </is>
+      </c>
+      <c r="J720" t="inlineStr">
+        <is>
+          <t>-39.86187815555067,176.98118568050833</t>
+        </is>
+      </c>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>-39.86255766671214,176.98096402271526</t>
+        </is>
+      </c>
+      <c r="L720" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-24 21:53:57+00:00</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>-39.857719313175785,176.985713509624</t>
+        </is>
+      </c>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>-39.85806567711761,176.9849342877131</t>
+        </is>
+      </c>
+      <c r="D721" t="inlineStr">
+        <is>
+          <t>-39.85845753619635,176.98418533646662</t>
+        </is>
+      </c>
+      <c r="E721" t="inlineStr">
+        <is>
+          <t>-39.859042760158424,176.98368545722357</t>
+        </is>
+      </c>
+      <c r="F721" t="inlineStr">
+        <is>
+          <t>-39.859575725254246,176.9831401428046</t>
+        </is>
+      </c>
+      <c r="G721" t="inlineStr">
+        <is>
+          <t>-39.86006401521755,176.98247372699893</t>
+        </is>
+      </c>
+      <c r="H721" t="inlineStr">
+        <is>
+          <t>-39.86058273935798,176.98185671757707</t>
+        </is>
+      </c>
+      <c r="I721" t="inlineStr">
+        <is>
+          <t>-39.86123027233207,176.98150799005546</t>
+        </is>
+      </c>
+      <c r="J721" t="inlineStr">
+        <is>
+          <t>-39.861891607090406,176.9812227561096</t>
+        </is>
+      </c>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>-39.86251072133904,176.98083243562573</t>
+        </is>
+      </c>
+      <c r="L721" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0298/nzd0298.xlsx
+++ b/data/nzd0298/nzd0298.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L721"/>
+  <dimension ref="A1:L724"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27910,6 +27910,132 @@
         </is>
       </c>
     </row>
+    <row r="722">
+      <c r="A722" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-31 21:59:41+00:00</t>
+        </is>
+      </c>
+      <c r="B722" t="n">
+        <v>334.31</v>
+      </c>
+      <c r="C722" t="n">
+        <v>331.8671428571428</v>
+      </c>
+      <c r="D722" t="n">
+        <v>335.3671428571428</v>
+      </c>
+      <c r="E722" t="n">
+        <v>358.06</v>
+      </c>
+      <c r="F722" t="n">
+        <v>342.5371428571428</v>
+      </c>
+      <c r="G722" t="n">
+        <v>337.9071428571428</v>
+      </c>
+      <c r="H722" t="n">
+        <v>334.8471428571428</v>
+      </c>
+      <c r="I722" t="n">
+        <v>346.4571428571429</v>
+      </c>
+      <c r="J722" t="n">
+        <v>354.29</v>
+      </c>
+      <c r="K722" t="n">
+        <v>361.53</v>
+      </c>
+      <c r="L722" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-01 21:53:56+00:00</t>
+        </is>
+      </c>
+      <c r="B723" t="n">
+        <v>331.61</v>
+      </c>
+      <c r="C723" t="n">
+        <v>338.2271428571428</v>
+      </c>
+      <c r="D723" t="n">
+        <v>340.3471428571428</v>
+      </c>
+      <c r="E723" t="n">
+        <v>357.5</v>
+      </c>
+      <c r="F723" t="n">
+        <v>340.6071428571428</v>
+      </c>
+      <c r="G723" t="n">
+        <v>333.0771428571429</v>
+      </c>
+      <c r="H723" t="n">
+        <v>336.0571428571428</v>
+      </c>
+      <c r="I723" t="n">
+        <v>348.8771428571428</v>
+      </c>
+      <c r="J723" t="n">
+        <v>353.88</v>
+      </c>
+      <c r="K723" t="n">
+        <v>360.42</v>
+      </c>
+      <c r="L723" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-09 21:53:57+00:00</t>
+        </is>
+      </c>
+      <c r="B724" t="n">
+        <v>330.27</v>
+      </c>
+      <c r="C724" t="n">
+        <v>328.0757142857143</v>
+      </c>
+      <c r="D724" t="n">
+        <v>334.8257142857143</v>
+      </c>
+      <c r="E724" t="n">
+        <v>350</v>
+      </c>
+      <c r="F724" t="n">
+        <v>333.8057142857143</v>
+      </c>
+      <c r="G724" t="n">
+        <v>329.2057142857143</v>
+      </c>
+      <c r="H724" t="n">
+        <v>328.9557142857143</v>
+      </c>
+      <c r="I724" t="n">
+        <v>334.2157142857143</v>
+      </c>
+      <c r="J724" t="n">
+        <v>344.32</v>
+      </c>
+      <c r="K724" t="n">
+        <v>345.44</v>
+      </c>
+      <c r="L724" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -27921,7 +28047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B726"/>
+  <dimension ref="A1:B729"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35189,6 +35315,36 @@
       </c>
       <c r="B726" t="n">
         <v>-0.73</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>2025-05-31 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B727" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>2025-06-01 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B728" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>2025-06-09 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B729" t="n">
+        <v>-0.48</v>
       </c>
     </row>
   </sheetData>
@@ -35362,28 +35518,28 @@
         <v>0.0265</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.5157919218143806</v>
+        <v>-0.5119797233146384</v>
       </c>
       <c r="J2" t="n">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="K2" t="n">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04457673042935428</v>
+        <v>0.0444161524208827</v>
       </c>
       <c r="M2" t="n">
-        <v>13.26048793550536</v>
+        <v>13.20474717891</v>
       </c>
       <c r="N2" t="n">
-        <v>306.1815570946158</v>
+        <v>304.6046743580864</v>
       </c>
       <c r="O2" t="n">
-        <v>17.49804437914751</v>
+        <v>17.45292738648982</v>
       </c>
       <c r="P2" t="n">
-        <v>341.7921329833824</v>
+        <v>341.7534385251476</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -35440,28 +35596,28 @@
         <v>0.0357</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2019427897509524</v>
+        <v>-0.2017300382029873</v>
       </c>
       <c r="J3" t="n">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="K3" t="n">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02375859822402737</v>
+        <v>0.02396415598426205</v>
       </c>
       <c r="M3" t="n">
-        <v>7.663882163763749</v>
+        <v>7.639760159899193</v>
       </c>
       <c r="N3" t="n">
-        <v>92.02168879950388</v>
+        <v>91.58111307758502</v>
       </c>
       <c r="O3" t="n">
-        <v>9.592793586828806</v>
+        <v>9.569802144119022</v>
       </c>
       <c r="P3" t="n">
-        <v>337.7480747237435</v>
+        <v>337.7459570269808</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -35518,28 +35674,28 @@
         <v>0.0362</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1566544078840555</v>
+        <v>-0.1574157239984031</v>
       </c>
       <c r="J4" t="n">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="K4" t="n">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01100124306259975</v>
+        <v>0.01121931191643277</v>
       </c>
       <c r="M4" t="n">
-        <v>8.695678349245783</v>
+        <v>8.66329875482907</v>
       </c>
       <c r="N4" t="n">
-        <v>122.1954495946129</v>
+        <v>121.5780610885235</v>
       </c>
       <c r="O4" t="n">
-        <v>11.05420506389369</v>
+        <v>11.02624419684797</v>
       </c>
       <c r="P4" t="n">
-        <v>341.655655489615</v>
+        <v>341.6633433535798</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -35596,28 +35752,28 @@
         <v>0.0413</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.04752485451614238</v>
+        <v>-0.04696115518493692</v>
       </c>
       <c r="J5" t="n">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="K5" t="n">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001546015902096354</v>
+        <v>0.001523476391652845</v>
       </c>
       <c r="M5" t="n">
-        <v>7.075697439199656</v>
+        <v>7.058278230928332</v>
       </c>
       <c r="N5" t="n">
-        <v>80.82630254185945</v>
+        <v>80.48804602558099</v>
       </c>
       <c r="O5" t="n">
-        <v>8.990344962339289</v>
+        <v>8.971513028780652</v>
       </c>
       <c r="P5" t="n">
-        <v>355.8161870144547</v>
+        <v>355.8105437892602</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -35674,28 +35830,28 @@
         <v>0.0357</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2102625598732089</v>
+        <v>-0.2154134149292403</v>
       </c>
       <c r="J6" t="n">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="K6" t="n">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02022160063020684</v>
+        <v>0.02137075104272168</v>
       </c>
       <c r="M6" t="n">
-        <v>8.42610864969803</v>
+        <v>8.410175393604169</v>
       </c>
       <c r="N6" t="n">
-        <v>118.2596524930073</v>
+        <v>117.8906285323356</v>
       </c>
       <c r="O6" t="n">
-        <v>10.87472539851041</v>
+        <v>10.85774509427881</v>
       </c>
       <c r="P6" t="n">
-        <v>349.9170427135318</v>
+        <v>349.9688952496742</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -35752,28 +35908,28 @@
         <v>0.0368</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2803927501910695</v>
+        <v>-0.2836372248802874</v>
       </c>
       <c r="J7" t="n">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="K7" t="n">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03674518484352485</v>
+        <v>0.03788995810274309</v>
       </c>
       <c r="M7" t="n">
-        <v>8.406125996551705</v>
+        <v>8.384214414266681</v>
       </c>
       <c r="N7" t="n">
-        <v>112.5913505550533</v>
+        <v>112.1551992370725</v>
       </c>
       <c r="O7" t="n">
-        <v>10.61090715043032</v>
+        <v>10.59033518058199</v>
       </c>
       <c r="P7" t="n">
-        <v>344.0841886251307</v>
+        <v>344.1170555059953</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -35830,28 +35986,28 @@
         <v>0.0361</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1205990813154289</v>
+        <v>-0.1244900198792971</v>
       </c>
       <c r="J8" t="n">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="K8" t="n">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="L8" t="n">
-        <v>0.006927017901494525</v>
+        <v>0.007444868898362045</v>
       </c>
       <c r="M8" t="n">
-        <v>8.35364570326534</v>
+        <v>8.330537247190023</v>
       </c>
       <c r="N8" t="n">
-        <v>113.4089528596428</v>
+        <v>112.9568305922905</v>
       </c>
       <c r="O8" t="n">
-        <v>10.64936396502828</v>
+        <v>10.6281151006324</v>
       </c>
       <c r="P8" t="n">
-        <v>340.3858455053287</v>
+        <v>340.4254390850189</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -35908,28 +36064,28 @@
         <v>0.0403</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03502086725691959</v>
+        <v>0.03391779778294002</v>
       </c>
       <c r="J9" t="n">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="K9" t="n">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0006736438737143802</v>
+        <v>0.0006368882301270862</v>
       </c>
       <c r="M9" t="n">
-        <v>7.850249167120669</v>
+        <v>7.839061249706321</v>
       </c>
       <c r="N9" t="n">
-        <v>99.2017951710373</v>
+        <v>98.91779819730354</v>
       </c>
       <c r="O9" t="n">
-        <v>9.960009797738017</v>
+        <v>9.945742717228489</v>
       </c>
       <c r="P9" t="n">
-        <v>343.4307357232017</v>
+        <v>343.4419673704244</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -35986,28 +36142,28 @@
         <v>0.0409</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05450531092877434</v>
+        <v>0.05527291945699602</v>
       </c>
       <c r="J10" t="n">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="K10" t="n">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002244486503362952</v>
+        <v>0.002327739368455983</v>
       </c>
       <c r="M10" t="n">
-        <v>6.92778999185251</v>
+        <v>6.915887498771554</v>
       </c>
       <c r="N10" t="n">
-        <v>72.67323701473377</v>
+        <v>72.4183935819625</v>
       </c>
       <c r="O10" t="n">
-        <v>8.524859941062596</v>
+        <v>8.509899739830223</v>
       </c>
       <c r="P10" t="n">
-        <v>348.6093266148213</v>
+        <v>348.6016166814667</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -36064,28 +36220,28 @@
         <v>0.0414</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01241827886773086</v>
+        <v>0.01098601098489085</v>
       </c>
       <c r="J11" t="n">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="K11" t="n">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0001233880375911545</v>
+        <v>9.71272972094539e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>6.29620053050916</v>
+        <v>6.297481965863009</v>
       </c>
       <c r="N11" t="n">
-        <v>68.57458149188705</v>
+        <v>68.51310010944776</v>
       </c>
       <c r="O11" t="n">
-        <v>8.280977085579156</v>
+        <v>8.27726404734365</v>
       </c>
       <c r="P11" t="n">
-        <v>357.0028723648132</v>
+        <v>357.0174079206756</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -36123,7 +36279,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L721"/>
+  <dimension ref="A1:L724"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53601,7 +53757,7 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>-39.860526300412495,176.98173810965466</t>
+          <t>-39.8605263004125,176.98173810965466</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
@@ -75177,6 +75333,192 @@
         </is>
       </c>
     </row>
+    <row r="722">
+      <c r="A722" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-31 21:59:41+00:00</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>-39.85766543413253,176.9856655944077</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t>-39.85801984474599,176.98489352876626</t>
+        </is>
+      </c>
+      <c r="D722" t="inlineStr">
+        <is>
+          <t>-39.85842275172131,176.98415065500674</t>
+        </is>
+      </c>
+      <c r="E722" t="inlineStr">
+        <is>
+          <t>-39.859003924112734,176.98362840957122</t>
+        </is>
+      </c>
+      <c r="F722" t="inlineStr">
+        <is>
+          <t>-39.85948224163882,176.98295841053596</t>
+        </is>
+      </c>
+      <c r="G722" t="inlineStr">
+        <is>
+          <t>-39.86002278662808,176.98239048507693</t>
+        </is>
+      </c>
+      <c r="H722" t="inlineStr">
+        <is>
+          <t>-39.860585548471725,176.98186262101532</t>
+        </is>
+      </c>
+      <c r="I722" t="inlineStr">
+        <is>
+          <t>-39.8612187438008,176.9814805664571</t>
+        </is>
+      </c>
+      <c r="J722" t="inlineStr">
+        <is>
+          <t>-39.86186443573362,176.98114786552182</t>
+        </is>
+      </c>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>-39.86250750848563,176.98082343007428</t>
+        </is>
+      </c>
+      <c r="L722" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-01 21:53:56+00:00</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>-39.85764539646571,176.98564777471879</t>
+        </is>
+      </c>
+      <c r="C723" t="inlineStr">
+        <is>
+          <t>-39.85806704477313,176.98493550397677</t>
+        </is>
+      </c>
+      <c r="D723" t="inlineStr">
+        <is>
+          <t>-39.858458280194654,176.9841860782621</t>
+        </is>
+      </c>
+      <c r="E723" t="inlineStr">
+        <is>
+          <t>-39.85900058849997,176.98362350977584</t>
+        </is>
+      </c>
+      <c r="F723" t="inlineStr">
+        <is>
+          <t>-39.85947260141317,176.98293966998668</t>
+        </is>
+      </c>
+      <c r="G723" t="inlineStr">
+        <is>
+          <t>-39.8599992919317,176.98234304858937</t>
+        </is>
+      </c>
+      <c r="H723" t="inlineStr">
+        <is>
+          <t>-39.86059126798833,176.98187464075764</t>
+        </is>
+      </c>
+      <c r="I723" t="inlineStr">
+        <is>
+          <t>-39.8612291705667,176.98150536922</t>
+        </is>
+      </c>
+      <c r="J723" t="inlineStr">
+        <is>
+          <t>-39.861862864468804,176.98114353475611</t>
+        </is>
+      </c>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>-39.86250331287595,176.9808116698848</t>
+        </is>
+      </c>
+      <c r="L723" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-09 21:53:57+00:00</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>-39.85763545184466,176.98563893087714</t>
+        </is>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>-39.85799170707508,176.98486850583646</t>
+        </is>
+      </c>
+      <c r="D724" t="inlineStr">
+        <is>
+          <t>-39.85841888904372,176.98414680377155</t>
+        </is>
+      </c>
+      <c r="E724" t="inlineStr">
+        <is>
+          <t>-39.858955915092444,176.98355788756183</t>
+        </is>
+      </c>
+      <c r="F724" t="inlineStr">
+        <is>
+          <t>-39.85943862868931,176.98287362727757</t>
+        </is>
+      </c>
+      <c r="G724" t="inlineStr">
+        <is>
+          <t>-39.85998046002434,176.98230502646445</t>
+        </is>
+      </c>
+      <c r="H724" t="inlineStr">
+        <is>
+          <t>-39.86055770041637,176.9818040975279</t>
+        </is>
+      </c>
+      <c r="I724" t="inlineStr">
+        <is>
+          <t>-39.86116600052749,176.98135510324116</t>
+        </is>
+      </c>
+      <c r="J724" t="inlineStr">
+        <is>
+          <t>-39.8618262271236,176.98104255402862</t>
+        </is>
+      </c>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>-39.86244669092027,176.98065296043325</t>
+        </is>
+      </c>
+      <c r="L724" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0298/nzd0298.xlsx
+++ b/data/nzd0298/nzd0298.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L724"/>
+  <dimension ref="A1:L725"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28036,6 +28036,48 @@
         </is>
       </c>
     </row>
+    <row r="725">
+      <c r="A725" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:54:08+00:00</t>
+        </is>
+      </c>
+      <c r="B725" t="n">
+        <v>296.62</v>
+      </c>
+      <c r="C725" t="n">
+        <v>333.7985714285714</v>
+      </c>
+      <c r="D725" t="n">
+        <v>335.2885714285715</v>
+      </c>
+      <c r="E725" t="n">
+        <v>354.68</v>
+      </c>
+      <c r="F725" t="n">
+        <v>342.3085714285714</v>
+      </c>
+      <c r="G725" t="n">
+        <v>338.7185714285715</v>
+      </c>
+      <c r="H725" t="n">
+        <v>334.9285714285714</v>
+      </c>
+      <c r="I725" t="n">
+        <v>347.7985714285714</v>
+      </c>
+      <c r="J725" t="n">
+        <v>350.33</v>
+      </c>
+      <c r="K725" t="n">
+        <v>355.74</v>
+      </c>
+      <c r="L725" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -28047,7 +28089,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B729"/>
+  <dimension ref="A1:B730"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35345,6 +35387,16 @@
       </c>
       <c r="B729" t="n">
         <v>-0.48</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B730" t="n">
+        <v>0.47</v>
       </c>
     </row>
   </sheetData>
@@ -35518,28 +35570,28 @@
         <v>0.0265</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.5119797233146384</v>
+        <v>-0.5232367751833918</v>
       </c>
       <c r="J2" t="n">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K2" t="n">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0444161524208827</v>
+        <v>0.04620073973559435</v>
       </c>
       <c r="M2" t="n">
-        <v>13.20474717891</v>
+        <v>13.24786830692297</v>
       </c>
       <c r="N2" t="n">
-        <v>304.6046743580864</v>
+        <v>305.8803588136203</v>
       </c>
       <c r="O2" t="n">
-        <v>17.45292738648982</v>
+        <v>17.48943563450863</v>
       </c>
       <c r="P2" t="n">
-        <v>341.7534385251476</v>
+        <v>341.8679254681257</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -35596,28 +35648,28 @@
         <v>0.0357</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2017300382029873</v>
+        <v>-0.2012524852839636</v>
       </c>
       <c r="J3" t="n">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K3" t="n">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02396415598426205</v>
+        <v>0.02394574986332831</v>
       </c>
       <c r="M3" t="n">
-        <v>7.639760159899193</v>
+        <v>7.626981978827932</v>
       </c>
       <c r="N3" t="n">
-        <v>91.58111307758502</v>
+        <v>91.40399545543345</v>
       </c>
       <c r="O3" t="n">
-        <v>9.569802144119022</v>
+        <v>9.560543679908243</v>
       </c>
       <c r="P3" t="n">
-        <v>337.7459570269808</v>
+        <v>337.7411530088639</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -35674,28 +35726,28 @@
         <v>0.0362</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1574157239984031</v>
+        <v>-0.15817946828347</v>
       </c>
       <c r="J4" t="n">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K4" t="n">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01121931191643277</v>
+        <v>0.01136514235779651</v>
       </c>
       <c r="M4" t="n">
-        <v>8.66329875482907</v>
+        <v>8.652271239566476</v>
       </c>
       <c r="N4" t="n">
-        <v>121.5780610885235</v>
+        <v>121.3711169826294</v>
       </c>
       <c r="O4" t="n">
-        <v>11.02624419684797</v>
+        <v>11.01685603893549</v>
       </c>
       <c r="P4" t="n">
-        <v>341.6633433535798</v>
+        <v>341.67106354333</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -35752,28 +35804,28 @@
         <v>0.0413</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.04696115518493692</v>
+        <v>-0.04693456251261709</v>
       </c>
       <c r="J5" t="n">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K5" t="n">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001523476391652845</v>
+        <v>0.001526807771390692</v>
       </c>
       <c r="M5" t="n">
-        <v>7.058278230928332</v>
+        <v>7.046549310212539</v>
       </c>
       <c r="N5" t="n">
-        <v>80.48804602558099</v>
+        <v>80.35278385749746</v>
       </c>
       <c r="O5" t="n">
-        <v>8.971513028780652</v>
+        <v>8.963971433326718</v>
       </c>
       <c r="P5" t="n">
-        <v>355.8105437892602</v>
+        <v>355.810276141877</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -35830,28 +35882,28 @@
         <v>0.0357</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2154134149292403</v>
+        <v>-0.2160636241280532</v>
       </c>
       <c r="J6" t="n">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K6" t="n">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02137075104272168</v>
+        <v>0.02156491052982024</v>
       </c>
       <c r="M6" t="n">
-        <v>8.410175393604169</v>
+        <v>8.399589490639901</v>
       </c>
       <c r="N6" t="n">
-        <v>117.8906285323356</v>
+        <v>117.7032497037612</v>
       </c>
       <c r="O6" t="n">
-        <v>10.85774509427881</v>
+        <v>10.84911285330562</v>
       </c>
       <c r="P6" t="n">
-        <v>349.9688952496742</v>
+        <v>349.9754505901706</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -35908,28 +35960,28 @@
         <v>0.0368</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2836372248802874</v>
+        <v>-0.2830301146245222</v>
       </c>
       <c r="J7" t="n">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K7" t="n">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03788995810274309</v>
+        <v>0.03785170780576952</v>
       </c>
       <c r="M7" t="n">
-        <v>8.384214414266681</v>
+        <v>8.373756147825294</v>
       </c>
       <c r="N7" t="n">
-        <v>112.1551992370725</v>
+        <v>111.9768830726378</v>
       </c>
       <c r="O7" t="n">
-        <v>10.59033518058199</v>
+        <v>10.58191301573765</v>
       </c>
       <c r="P7" t="n">
-        <v>344.1170555059953</v>
+        <v>344.1108971056653</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -35986,28 +36038,28 @@
         <v>0.0361</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1244900198792971</v>
+        <v>-0.1252294444406249</v>
       </c>
       <c r="J8" t="n">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K8" t="n">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="L8" t="n">
-        <v>0.007444868898362045</v>
+        <v>0.007557753811927803</v>
       </c>
       <c r="M8" t="n">
-        <v>8.330537247190023</v>
+        <v>8.320058423597988</v>
       </c>
       <c r="N8" t="n">
-        <v>112.9568305922905</v>
+        <v>112.7728714608448</v>
       </c>
       <c r="O8" t="n">
-        <v>10.6281151006324</v>
+        <v>10.61945721121587</v>
       </c>
       <c r="P8" t="n">
-        <v>340.4254390850189</v>
+        <v>340.4329741854955</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -36064,28 +36116,28 @@
         <v>0.0403</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03391779778294002</v>
+        <v>0.03502045566707292</v>
       </c>
       <c r="J9" t="n">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K9" t="n">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0006368882301270862</v>
+        <v>0.0006810600214960383</v>
       </c>
       <c r="M9" t="n">
-        <v>7.839061249706321</v>
+        <v>7.831657706421638</v>
       </c>
       <c r="N9" t="n">
-        <v>98.91779819730354</v>
+        <v>98.7730100836049</v>
       </c>
       <c r="O9" t="n">
-        <v>9.945742717228489</v>
+        <v>9.938461152693856</v>
       </c>
       <c r="P9" t="n">
-        <v>343.4419673704244</v>
+        <v>343.430752058365</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -36142,28 +36194,28 @@
         <v>0.0409</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05527291945699602</v>
+        <v>0.05536735342377604</v>
       </c>
       <c r="J10" t="n">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K10" t="n">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002327739368455983</v>
+        <v>0.002343447781827379</v>
       </c>
       <c r="M10" t="n">
-        <v>6.915887498771554</v>
+        <v>6.904803349862583</v>
       </c>
       <c r="N10" t="n">
-        <v>72.4183935819625</v>
+        <v>72.29764289686598</v>
       </c>
       <c r="O10" t="n">
-        <v>8.509899739830223</v>
+        <v>8.502802061489259</v>
       </c>
       <c r="P10" t="n">
-        <v>348.6016166814667</v>
+        <v>348.6006634153283</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -36220,28 +36272,28 @@
         <v>0.0414</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01098601098489085</v>
+        <v>0.01050087105396713</v>
       </c>
       <c r="J11" t="n">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K11" t="n">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="L11" t="n">
-        <v>9.71272972094539e-05</v>
+        <v>8.902300333679669e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>6.297481965863009</v>
+        <v>6.289947466790027</v>
       </c>
       <c r="N11" t="n">
-        <v>68.51310010944776</v>
+        <v>68.40440526533769</v>
       </c>
       <c r="O11" t="n">
-        <v>8.27726404734365</v>
+        <v>8.270695573247615</v>
       </c>
       <c r="P11" t="n">
-        <v>357.0174079206756</v>
+        <v>357.0223276271527</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -36279,7 +36331,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L724"/>
+  <dimension ref="A1:L725"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75519,6 +75571,68 @@
         </is>
       </c>
     </row>
+    <row r="725">
+      <c r="A725" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:54:08+00:00</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>-39.85738572284698,176.9854168457139</t>
+        </is>
+      </c>
+      <c r="C725" t="inlineStr">
+        <is>
+          <t>-39.8580341786286,176.98490627594884</t>
+        </is>
+      </c>
+      <c r="D725" t="inlineStr">
+        <is>
+          <t>-39.85842219117445,176.98415009612035</t>
+        </is>
+      </c>
+      <c r="E725" t="inlineStr">
+        <is>
+          <t>-39.858983791303636,176.9835988358134</t>
+        </is>
+      </c>
+      <c r="F725" t="inlineStr">
+        <is>
+          <t>-39.85948109993944,176.9829561910776</t>
+        </is>
+      </c>
+      <c r="G725" t="inlineStr">
+        <is>
+          <t>-39.86002673367941,176.9823984542977</t>
+        </is>
+      </c>
+      <c r="H725" t="inlineStr">
+        <is>
+          <t>-39.860585933374296,176.98186342989993</t>
+        </is>
+      </c>
+      <c r="I725" t="inlineStr">
+        <is>
+          <t>-39.86122452345509,176.98149431485902</t>
+        </is>
+      </c>
+      <c r="J725" t="inlineStr">
+        <is>
+          <t>-39.86184925960782,176.98110603667072</t>
+        </is>
+      </c>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>-39.862485623264405,176.98076208639804</t>
+        </is>
+      </c>
+      <c r="L725" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0298/nzd0298.xlsx
+++ b/data/nzd0298/nzd0298.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L725"/>
+  <dimension ref="A1:L728"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28078,6 +28078,132 @@
         </is>
       </c>
     </row>
+    <row r="726">
+      <c r="A726" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-03 21:54:14+00:00</t>
+        </is>
+      </c>
+      <c r="B726" t="n">
+        <v>332.59</v>
+      </c>
+      <c r="C726" t="n">
+        <v>325.04</v>
+      </c>
+      <c r="D726" t="n">
+        <v>340.78</v>
+      </c>
+      <c r="E726" t="n">
+        <v>354.12</v>
+      </c>
+      <c r="F726" t="n">
+        <v>341.51</v>
+      </c>
+      <c r="G726" t="n">
+        <v>338.7</v>
+      </c>
+      <c r="H726" t="n">
+        <v>350.57</v>
+      </c>
+      <c r="I726" t="n">
+        <v>353.26</v>
+      </c>
+      <c r="J726" t="n">
+        <v>350.46</v>
+      </c>
+      <c r="K726" t="n">
+        <v>359.51</v>
+      </c>
+      <c r="L726" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-18 22:00:04+00:00</t>
+        </is>
+      </c>
+      <c r="B727" t="n">
+        <v>332.83</v>
+      </c>
+      <c r="C727" t="n">
+        <v>331.8385714285715</v>
+      </c>
+      <c r="D727" t="n">
+        <v>338.0485714285714</v>
+      </c>
+      <c r="E727" t="n">
+        <v>352.04</v>
+      </c>
+      <c r="F727" t="n">
+        <v>338.4485714285714</v>
+      </c>
+      <c r="G727" t="n">
+        <v>344.3385714285715</v>
+      </c>
+      <c r="H727" t="n">
+        <v>339.2285714285715</v>
+      </c>
+      <c r="I727" t="n">
+        <v>343.9585714285714</v>
+      </c>
+      <c r="J727" t="n">
+        <v>347.81</v>
+      </c>
+      <c r="K727" t="n">
+        <v>352.42</v>
+      </c>
+      <c r="L727" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-27 21:54:21+00:00</t>
+        </is>
+      </c>
+      <c r="B728" t="n">
+        <v>335.67</v>
+      </c>
+      <c r="C728" t="n">
+        <v>333.6871428571428</v>
+      </c>
+      <c r="D728" t="n">
+        <v>336.4371428571428</v>
+      </c>
+      <c r="E728" t="n">
+        <v>355.59</v>
+      </c>
+      <c r="F728" t="n">
+        <v>345.4171428571428</v>
+      </c>
+      <c r="G728" t="n">
+        <v>336.8071428571428</v>
+      </c>
+      <c r="H728" t="n">
+        <v>332.1071428571428</v>
+      </c>
+      <c r="I728" t="n">
+        <v>343.7671428571429</v>
+      </c>
+      <c r="J728" t="n">
+        <v>347.23</v>
+      </c>
+      <c r="K728" t="n">
+        <v>351.25</v>
+      </c>
+      <c r="L728" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -28089,7 +28215,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B730"/>
+  <dimension ref="A1:B733"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35397,6 +35523,36 @@
       </c>
       <c r="B730" t="n">
         <v>0.47</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>2025-07-03 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B731" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>2025-07-18 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B732" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>2025-07-27 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B733" t="n">
+        <v>0.31</v>
       </c>
     </row>
   </sheetData>
@@ -35570,28 +35726,28 @@
         <v>0.0265</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.5232367751833918</v>
+        <v>-0.5175621246736598</v>
       </c>
       <c r="J2" t="n">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="K2" t="n">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04620073973559435</v>
+        <v>0.0457140209640553</v>
       </c>
       <c r="M2" t="n">
-        <v>13.24786830692297</v>
+        <v>13.20045960741601</v>
       </c>
       <c r="N2" t="n">
-        <v>305.8803588136203</v>
+        <v>304.3983485534978</v>
       </c>
       <c r="O2" t="n">
-        <v>17.48943563450863</v>
+        <v>17.44701546263709</v>
       </c>
       <c r="P2" t="n">
-        <v>341.8679254681257</v>
+        <v>341.8099807113151</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -35648,28 +35804,28 @@
         <v>0.0357</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2012524852839636</v>
+        <v>-0.2038425478662745</v>
       </c>
       <c r="J3" t="n">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="K3" t="n">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02394574986332831</v>
+        <v>0.02480869408502373</v>
       </c>
       <c r="M3" t="n">
-        <v>7.626981978827932</v>
+        <v>7.601698842486587</v>
       </c>
       <c r="N3" t="n">
-        <v>91.40399545543345</v>
+        <v>90.98009901349801</v>
       </c>
       <c r="O3" t="n">
-        <v>9.560543679908243</v>
+        <v>9.538348862014747</v>
       </c>
       <c r="P3" t="n">
-        <v>337.7411530088639</v>
+        <v>337.7672542040706</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -35726,28 +35882,28 @@
         <v>0.0362</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.15817946828347</v>
+        <v>-0.1573401830513029</v>
       </c>
       <c r="J4" t="n">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="K4" t="n">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01136514235779651</v>
+        <v>0.01136039717844273</v>
       </c>
       <c r="M4" t="n">
-        <v>8.652271239566476</v>
+        <v>8.614514191995085</v>
       </c>
       <c r="N4" t="n">
-        <v>121.3711169826294</v>
+        <v>120.747469743084</v>
       </c>
       <c r="O4" t="n">
-        <v>11.01685603893549</v>
+        <v>10.98851535663868</v>
       </c>
       <c r="P4" t="n">
-        <v>341.67106354333</v>
+        <v>341.6625703259392</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -35804,28 +35960,28 @@
         <v>0.0413</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.04693456251261709</v>
+        <v>-0.04756906389453698</v>
       </c>
       <c r="J5" t="n">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="K5" t="n">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001526807771390692</v>
+        <v>0.001583751756788043</v>
       </c>
       <c r="M5" t="n">
-        <v>7.046549310212539</v>
+        <v>7.018097962086721</v>
       </c>
       <c r="N5" t="n">
-        <v>80.35278385749746</v>
+        <v>79.96257954595143</v>
       </c>
       <c r="O5" t="n">
-        <v>8.963971433326718</v>
+        <v>8.942179798346229</v>
       </c>
       <c r="P5" t="n">
-        <v>355.810276141877</v>
+        <v>355.8166823512341</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -35882,28 +36038,28 @@
         <v>0.0357</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2160636241280532</v>
+        <v>-0.2184509198899032</v>
       </c>
       <c r="J6" t="n">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="K6" t="n">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02156491052982024</v>
+        <v>0.0222332654541928</v>
       </c>
       <c r="M6" t="n">
-        <v>8.399589490639901</v>
+        <v>8.373869184239295</v>
       </c>
       <c r="N6" t="n">
-        <v>117.7032497037612</v>
+        <v>117.1958130014941</v>
       </c>
       <c r="O6" t="n">
-        <v>10.84911285330562</v>
+        <v>10.82570150158844</v>
       </c>
       <c r="P6" t="n">
-        <v>349.9754505901706</v>
+        <v>349.9995982966409</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -35960,28 +36116,28 @@
         <v>0.0368</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2830301146245222</v>
+        <v>-0.2800633145205477</v>
       </c>
       <c r="J7" t="n">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="K7" t="n">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03785170780576952</v>
+        <v>0.03741443826749025</v>
       </c>
       <c r="M7" t="n">
-        <v>8.373756147825294</v>
+        <v>8.348779031764563</v>
       </c>
       <c r="N7" t="n">
-        <v>111.9768830726378</v>
+        <v>111.5262626783478</v>
       </c>
       <c r="O7" t="n">
-        <v>10.58191301573765</v>
+        <v>10.56059954161447</v>
       </c>
       <c r="P7" t="n">
-        <v>344.1108971056653</v>
+        <v>344.0806892421464</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -36038,28 +36194,28 @@
         <v>0.0361</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1252294444406249</v>
+        <v>-0.1219113457332314</v>
       </c>
       <c r="J8" t="n">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="K8" t="n">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="L8" t="n">
-        <v>0.007557753811927803</v>
+        <v>0.007215763909169892</v>
       </c>
       <c r="M8" t="n">
-        <v>8.320058423597988</v>
+        <v>8.313058016882517</v>
       </c>
       <c r="N8" t="n">
-        <v>112.7728714608448</v>
+        <v>112.5523853986585</v>
       </c>
       <c r="O8" t="n">
-        <v>10.61945721121587</v>
+        <v>10.60907090176414</v>
       </c>
       <c r="P8" t="n">
-        <v>340.4329741854955</v>
+        <v>340.3991297184941</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -36116,28 +36272,28 @@
         <v>0.0403</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03502045566707292</v>
+        <v>0.03751683709023415</v>
       </c>
       <c r="J9" t="n">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="K9" t="n">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0006810600214960383</v>
+        <v>0.0007883073867562818</v>
       </c>
       <c r="M9" t="n">
-        <v>7.831657706421638</v>
+        <v>7.808830373110935</v>
       </c>
       <c r="N9" t="n">
-        <v>98.7730100836049</v>
+        <v>98.41387473374451</v>
       </c>
       <c r="O9" t="n">
-        <v>9.938461152693856</v>
+        <v>9.92037674353875</v>
       </c>
       <c r="P9" t="n">
-        <v>343.430752058365</v>
+        <v>343.4053152364143</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -36194,28 +36350,28 @@
         <v>0.0409</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05536735342377604</v>
+        <v>0.05391648917100222</v>
       </c>
       <c r="J10" t="n">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="K10" t="n">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002343447781827379</v>
+        <v>0.002244140054981303</v>
       </c>
       <c r="M10" t="n">
-        <v>6.904803349862583</v>
+        <v>6.879989574849585</v>
       </c>
       <c r="N10" t="n">
-        <v>72.29764289686598</v>
+        <v>71.95882838901161</v>
       </c>
       <c r="O10" t="n">
-        <v>8.502802061489259</v>
+        <v>8.482854966873571</v>
       </c>
       <c r="P10" t="n">
-        <v>348.6006634153283</v>
+        <v>348.6153843920324</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -36272,28 +36428,28 @@
         <v>0.0414</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01050087105396713</v>
+        <v>0.007807364089998978</v>
       </c>
       <c r="J11" t="n">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="K11" t="n">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="L11" t="n">
-        <v>8.902300333679669e-05</v>
+        <v>4.961880417075903e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>6.289947466790027</v>
+        <v>6.281895845044161</v>
       </c>
       <c r="N11" t="n">
-        <v>68.40440526533769</v>
+        <v>68.17467207397166</v>
       </c>
       <c r="O11" t="n">
-        <v>8.270695573247615</v>
+        <v>8.256795508789816</v>
       </c>
       <c r="P11" t="n">
-        <v>357.0223276271527</v>
+        <v>357.0497946481213</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -36331,7 +36487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L725"/>
+  <dimension ref="A1:L728"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75633,6 +75789,192 @@
         </is>
       </c>
     </row>
+    <row r="726">
+      <c r="A726" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-03 21:54:14+00:00</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>-39.85765266939702,176.98565424260465</t>
+        </is>
+      </c>
+      <c r="C726" t="inlineStr">
+        <is>
+          <t>-39.85796917785006,176.98484847053666</t>
+        </is>
+      </c>
+      <c r="D726" t="inlineStr">
+        <is>
+          <t>-39.85846136829716,176.9841891572215</t>
+        </is>
+      </c>
+      <c r="E726" t="inlineStr">
+        <is>
+          <t>-39.85898045568946,176.9835939360209</t>
+        </is>
+      </c>
+      <c r="F726" t="inlineStr">
+        <is>
+          <t>-39.85947711112684,176.9829484368455</t>
+        </is>
+      </c>
+      <c r="G726" t="inlineStr">
+        <is>
+          <t>-39.86002664334197,176.98239827190358</t>
+        </is>
+      </c>
+      <c r="H726" t="inlineStr">
+        <is>
+          <t>-39.86065986831898,176.98201880686153</t>
+        </is>
+      </c>
+      <c r="I726" t="inlineStr">
+        <is>
+          <t>-39.86124805444696,176.98155028947247</t>
+        </is>
+      </c>
+      <c r="J726" t="inlineStr">
+        <is>
+          <t>-39.861849757814234,176.9811074098398</t>
+        </is>
+      </c>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>-39.86249987323103,176.98080202864938</t>
+        </is>
+      </c>
+      <c r="L726" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-18 22:00:04+00:00</t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>-39.85765445052298,176.9856558265769</t>
+        </is>
+      </c>
+      <c r="C727" t="inlineStr">
+        <is>
+          <t>-39.8580196327063,176.9848933401985</t>
+        </is>
+      </c>
+      <c r="D727" t="inlineStr">
+        <is>
+          <t>-39.858441881655345,176.98416972828102</t>
+        </is>
+      </c>
+      <c r="E727" t="inlineStr">
+        <is>
+          <t>-39.85896806626342,176.98357573679564</t>
+        </is>
+      </c>
+      <c r="F727" t="inlineStr">
+        <is>
+          <t>-39.85946181948404,176.98291870998537</t>
+        </is>
+      </c>
+      <c r="G727" t="inlineStr">
+        <is>
+          <t>-39.86005407116291,176.98245364959408</t>
+        </is>
+      </c>
+      <c r="H727" t="inlineStr">
+        <is>
+          <t>-39.86060625892274,176.98190614469593</t>
+        </is>
+      </c>
+      <c r="I727" t="inlineStr">
+        <is>
+          <t>-39.86120797849757,176.9814549584173</t>
+        </is>
+      </c>
+      <c r="J727" t="inlineStr">
+        <is>
+          <t>-39.86183960206487,176.98107941832004</t>
+        </is>
+      </c>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>-39.86247307421007,176.98072691180244</t>
+        </is>
+      </c>
+      <c r="L727" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-27 21:54:21+00:00</t>
+        </is>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>-39.85767552717827,176.98567457025504</t>
+        </is>
+      </c>
+      <c r="C728" t="inlineStr">
+        <is>
+          <t>-39.858033351673875,176.9849055405343</t>
+        </is>
+      </c>
+      <c r="D728" t="inlineStr">
+        <is>
+          <t>-39.8584303853502,176.98415826602434</t>
+        </is>
+      </c>
+      <c r="E728" t="inlineStr">
+        <is>
+          <t>-39.85898921167614,176.9836067979773</t>
+        </is>
+      </c>
+      <c r="F728" t="inlineStr">
+        <is>
+          <t>-39.859496627047115,176.98298637571745</t>
+        </is>
+      </c>
+      <c r="G728" t="inlineStr">
+        <is>
+          <t>-39.86001743587093,176.98237968173333</t>
+        </is>
+      </c>
+      <c r="H728" t="inlineStr">
+        <is>
+          <t>-39.86057259683405,176.98183540276304</t>
+        </is>
+      </c>
+      <c r="I728" t="inlineStr">
+        <is>
+          <t>-39.86120715371137,176.98145299645228</t>
+        </is>
+      </c>
+      <c r="J728" t="inlineStr">
+        <is>
+          <t>-39.861837379296134,176.98107329187525</t>
+        </is>
+      </c>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>-39.86246865179967,176.98071451593879</t>
+        </is>
+      </c>
+      <c r="L728" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0298/nzd0298.xlsx
+++ b/data/nzd0298/nzd0298.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L728"/>
+  <dimension ref="A1:L729"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28204,6 +28204,48 @@
         </is>
       </c>
     </row>
+    <row r="729">
+      <c r="A729" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-28 21:54:35+00:00</t>
+        </is>
+      </c>
+      <c r="B729" t="n">
+        <v>347.37</v>
+      </c>
+      <c r="C729" t="n">
+        <v>340.3</v>
+      </c>
+      <c r="D729" t="n">
+        <v>346.21</v>
+      </c>
+      <c r="E729" t="n">
+        <v>357.76</v>
+      </c>
+      <c r="F729" t="n">
+        <v>344.93</v>
+      </c>
+      <c r="G729" t="n">
+        <v>331.68</v>
+      </c>
+      <c r="H729" t="n">
+        <v>332.1</v>
+      </c>
+      <c r="I729" t="n">
+        <v>345.47</v>
+      </c>
+      <c r="J729" t="n">
+        <v>350.82</v>
+      </c>
+      <c r="K729" t="n">
+        <v>357.73</v>
+      </c>
+      <c r="L729" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -28215,7 +28257,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B733"/>
+  <dimension ref="A1:B734"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35553,6 +35595,16 @@
       </c>
       <c r="B733" t="n">
         <v>0.31</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>2025-08-28 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B734" t="n">
+        <v>0.5600000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -35726,28 +35778,28 @@
         <v>0.0265</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.5175621246736598</v>
+        <v>-0.5108624655560788</v>
       </c>
       <c r="J2" t="n">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K2" t="n">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0457140209640553</v>
+        <v>0.04466104632615242</v>
       </c>
       <c r="M2" t="n">
-        <v>13.20045960741601</v>
+        <v>13.20473000496275</v>
       </c>
       <c r="N2" t="n">
-        <v>304.3983485534978</v>
+        <v>304.4995764457822</v>
       </c>
       <c r="O2" t="n">
-        <v>17.44701546263709</v>
+        <v>17.4499162303371</v>
       </c>
       <c r="P2" t="n">
-        <v>341.8099807113151</v>
+        <v>341.7412109161742</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -35804,28 +35856,28 @@
         <v>0.0357</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2038425478662745</v>
+        <v>-0.2009096838075033</v>
       </c>
       <c r="J3" t="n">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K3" t="n">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02480869408502373</v>
+        <v>0.02418051812800492</v>
       </c>
       <c r="M3" t="n">
-        <v>7.601698842486587</v>
+        <v>7.600735713338421</v>
       </c>
       <c r="N3" t="n">
-        <v>90.98009901349801</v>
+        <v>90.92191525760325</v>
       </c>
       <c r="O3" t="n">
-        <v>9.538348862014747</v>
+        <v>9.535298383249643</v>
       </c>
       <c r="P3" t="n">
-        <v>337.7672542040706</v>
+        <v>337.7374663164023</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -35882,28 +35934,28 @@
         <v>0.0362</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1573401830513029</v>
+        <v>-0.1544780411266514</v>
       </c>
       <c r="J4" t="n">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K4" t="n">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01136039717844273</v>
+        <v>0.01098139830688616</v>
       </c>
       <c r="M4" t="n">
-        <v>8.614514191995085</v>
+        <v>8.613438326859772</v>
       </c>
       <c r="N4" t="n">
-        <v>120.747469743084</v>
+        <v>120.6655878505175</v>
       </c>
       <c r="O4" t="n">
-        <v>10.98851535663868</v>
+        <v>10.98478893063119</v>
       </c>
       <c r="P4" t="n">
-        <v>341.6625703259392</v>
+        <v>341.6333503226867</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -35960,28 +36012,28 @@
         <v>0.0413</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.04756906389453698</v>
+        <v>-0.04656520705674479</v>
       </c>
       <c r="J5" t="n">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K5" t="n">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001583751756788043</v>
+        <v>0.001522487203200362</v>
       </c>
       <c r="M5" t="n">
-        <v>7.018097962086721</v>
+        <v>7.011405192981893</v>
       </c>
       <c r="N5" t="n">
-        <v>79.96257954595143</v>
+        <v>79.84591712045699</v>
       </c>
       <c r="O5" t="n">
-        <v>8.942179798346229</v>
+        <v>8.935654263704308</v>
       </c>
       <c r="P5" t="n">
-        <v>355.8166823512341</v>
+        <v>355.8064793133025</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -36038,28 +36090,28 @@
         <v>0.0357</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2184509198899032</v>
+        <v>-0.2182567704306806</v>
       </c>
       <c r="J6" t="n">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K6" t="n">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0222332654541928</v>
+        <v>0.02226651614041608</v>
       </c>
       <c r="M6" t="n">
-        <v>8.373869184239295</v>
+        <v>8.361195766296781</v>
       </c>
       <c r="N6" t="n">
-        <v>117.1958130014941</v>
+        <v>117.0043242533061</v>
       </c>
       <c r="O6" t="n">
-        <v>10.82570150158844</v>
+        <v>10.81685371322484</v>
       </c>
       <c r="P6" t="n">
-        <v>349.9995982966409</v>
+        <v>349.9976217493871</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -36116,28 +36168,28 @@
         <v>0.0368</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2800633145205477</v>
+        <v>-0.2816592346733355</v>
       </c>
       <c r="J7" t="n">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K7" t="n">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03741443826749025</v>
+        <v>0.03793330203958856</v>
       </c>
       <c r="M7" t="n">
-        <v>8.348779031764563</v>
+        <v>8.343132880408088</v>
       </c>
       <c r="N7" t="n">
-        <v>111.5262626783478</v>
+        <v>111.3863368170733</v>
       </c>
       <c r="O7" t="n">
-        <v>10.56059954161447</v>
+        <v>10.55397256093995</v>
       </c>
       <c r="P7" t="n">
-        <v>344.0806892421464</v>
+        <v>344.0970341353163</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -36194,28 +36246,28 @@
         <v>0.0361</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1219113457332314</v>
+        <v>-0.1235720248681072</v>
       </c>
       <c r="J8" t="n">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K8" t="n">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L8" t="n">
-        <v>0.007215763909169892</v>
+        <v>0.007434610192496693</v>
       </c>
       <c r="M8" t="n">
-        <v>8.313058016882517</v>
+        <v>8.307320943916013</v>
       </c>
       <c r="N8" t="n">
-        <v>112.5523853986585</v>
+        <v>112.405850032675</v>
       </c>
       <c r="O8" t="n">
-        <v>10.60907090176414</v>
+        <v>10.6021625168017</v>
       </c>
       <c r="P8" t="n">
-        <v>340.3991297184941</v>
+        <v>340.4162162980138</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -36272,28 +36324,28 @@
         <v>0.0403</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03751683709023415</v>
+        <v>0.03786086502636875</v>
       </c>
       <c r="J9" t="n">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K9" t="n">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0007883073867562818</v>
+        <v>0.0008054995885394822</v>
       </c>
       <c r="M9" t="n">
-        <v>7.808830373110935</v>
+        <v>7.797659590976184</v>
       </c>
       <c r="N9" t="n">
-        <v>98.41387473374451</v>
+        <v>98.25288371708338</v>
       </c>
       <c r="O9" t="n">
-        <v>9.92037674353875</v>
+        <v>9.912259264016624</v>
       </c>
       <c r="P9" t="n">
-        <v>343.4053152364143</v>
+        <v>343.4017822374195</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -36350,28 +36402,28 @@
         <v>0.0409</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05391648917100222</v>
+        <v>0.05416891184265044</v>
       </c>
       <c r="J10" t="n">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K10" t="n">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002244140054981303</v>
+        <v>0.002272739069763552</v>
       </c>
       <c r="M10" t="n">
-        <v>6.879989574849585</v>
+        <v>6.86980838713181</v>
       </c>
       <c r="N10" t="n">
-        <v>71.95882838901161</v>
+        <v>71.84054792203897</v>
       </c>
       <c r="O10" t="n">
-        <v>8.482854966873571</v>
+        <v>8.4758803626549</v>
       </c>
       <c r="P10" t="n">
-        <v>348.6153843920324</v>
+        <v>348.6128115133231</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -36428,28 +36480,28 @@
         <v>0.0414</v>
       </c>
       <c r="I11" t="n">
-        <v>0.007807364089998978</v>
+        <v>0.007955339285219796</v>
       </c>
       <c r="J11" t="n">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K11" t="n">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="L11" t="n">
-        <v>4.961880417075903e-05</v>
+        <v>5.168683129941343e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>6.281895845044161</v>
+        <v>6.272333458261953</v>
       </c>
       <c r="N11" t="n">
-        <v>68.17467207397166</v>
+        <v>68.06364505690814</v>
       </c>
       <c r="O11" t="n">
-        <v>8.256795508789816</v>
+        <v>8.250069397096496</v>
       </c>
       <c r="P11" t="n">
-        <v>357.0497946481213</v>
+        <v>357.04827940607</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -36487,7 +36539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L728"/>
+  <dimension ref="A1:L729"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75975,6 +76027,68 @@
         </is>
       </c>
     </row>
+    <row r="729">
+      <c r="A729" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-28 21:54:35+00:00</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>-39.85776235702234,176.98575178905324</t>
+        </is>
+      </c>
+      <c r="C729" t="inlineStr">
+        <is>
+          <t>-39.85808242824611,176.98494918458934</t>
+        </is>
+      </c>
+      <c r="D729" t="inlineStr">
+        <is>
+          <t>-39.858500107158875,176.98422778141938</t>
+        </is>
+      </c>
+      <c r="E729" t="inlineStr">
+        <is>
+          <t>-39.85900213717735,176.98362578468078</t>
+        </is>
+      </c>
+      <c r="F729" t="inlineStr">
+        <is>
+          <t>-39.85949419380149,176.982981645495</t>
+        </is>
+      </c>
+      <c r="G729" t="inlineStr">
+        <is>
+          <t>-39.85999249576892,176.98232932694935</t>
+        </is>
+      </c>
+      <c r="H729" t="inlineStr">
+        <is>
+          <t>-39.86057256307064,176.98183533180827</t>
+        </is>
+      </c>
+      <c r="I729" t="inlineStr">
+        <is>
+          <t>-39.86121449061426,176.98147044915746</t>
+        </is>
+      </c>
+      <c r="J729" t="inlineStr">
+        <is>
+          <t>-39.86185113746266,176.98111121246194</t>
+        </is>
+      </c>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>-39.86249314513189,176.98078316997172</t>
+        </is>
+      </c>
+      <c r="L729" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0298/nzd0298.xlsx
+++ b/data/nzd0298/nzd0298.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L729"/>
+  <dimension ref="A1:L730"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28246,6 +28246,48 @@
         </is>
       </c>
     </row>
+    <row r="730">
+      <c r="A730" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-12 22:00:24+00:00</t>
+        </is>
+      </c>
+      <c r="B730" t="n">
+        <v>348.96</v>
+      </c>
+      <c r="C730" t="n">
+        <v>340.2214285714285</v>
+      </c>
+      <c r="D730" t="n">
+        <v>345.0814285714285</v>
+      </c>
+      <c r="E730" t="n">
+        <v>359.5</v>
+      </c>
+      <c r="F730" t="n">
+        <v>344.9014285714285</v>
+      </c>
+      <c r="G730" t="n">
+        <v>334.2614285714285</v>
+      </c>
+      <c r="H730" t="n">
+        <v>335.6814285714286</v>
+      </c>
+      <c r="I730" t="n">
+        <v>339.7014285714285</v>
+      </c>
+      <c r="J730" t="n">
+        <v>354.96</v>
+      </c>
+      <c r="K730" t="n">
+        <v>361.55</v>
+      </c>
+      <c r="L730" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -28257,7 +28299,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B734"/>
+  <dimension ref="A1:B735"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35605,6 +35647,16 @@
       </c>
       <c r="B734" t="n">
         <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>2025-09-12 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B735" t="n">
+        <v>0.79</v>
       </c>
     </row>
   </sheetData>
@@ -35778,28 +35830,28 @@
         <v>0.0265</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.5108624655560788</v>
+        <v>-0.5036460410785281</v>
       </c>
       <c r="J2" t="n">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K2" t="n">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04466104632615242</v>
+        <v>0.04351712988273349</v>
       </c>
       <c r="M2" t="n">
-        <v>13.20473000496275</v>
+        <v>13.21109380639007</v>
       </c>
       <c r="N2" t="n">
-        <v>304.4995764457822</v>
+        <v>304.7064890709106</v>
       </c>
       <c r="O2" t="n">
-        <v>17.4499162303371</v>
+        <v>17.45584398048145</v>
       </c>
       <c r="P2" t="n">
-        <v>341.7412109161742</v>
+        <v>341.6669961472609</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -35856,28 +35908,28 @@
         <v>0.0357</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2009096838075033</v>
+        <v>-0.1980266731377529</v>
       </c>
       <c r="J3" t="n">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K3" t="n">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02418051812800492</v>
+        <v>0.02357055463203561</v>
       </c>
       <c r="M3" t="n">
-        <v>7.600735713338421</v>
+        <v>7.599638602188247</v>
       </c>
       <c r="N3" t="n">
-        <v>90.92191525760325</v>
+        <v>90.8604286533854</v>
       </c>
       <c r="O3" t="n">
-        <v>9.535298383249643</v>
+        <v>9.532073680652358</v>
       </c>
       <c r="P3" t="n">
-        <v>337.7374663164023</v>
+        <v>337.7081270837105</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -35934,28 +35986,28 @@
         <v>0.0362</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1544780411266514</v>
+        <v>-0.1520056851342474</v>
       </c>
       <c r="J4" t="n">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K4" t="n">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01098139830688616</v>
+        <v>0.01066466018587786</v>
       </c>
       <c r="M4" t="n">
-        <v>8.613438326859772</v>
+        <v>8.610429531668936</v>
       </c>
       <c r="N4" t="n">
-        <v>120.6655878505175</v>
+        <v>120.5509547240551</v>
       </c>
       <c r="O4" t="n">
-        <v>10.98478893063119</v>
+        <v>10.97956987882745</v>
       </c>
       <c r="P4" t="n">
-        <v>341.6333503226867</v>
+        <v>341.6080583560388</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -36012,28 +36064,28 @@
         <v>0.0413</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.04656520705674479</v>
+        <v>-0.04501884846108381</v>
       </c>
       <c r="J5" t="n">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K5" t="n">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001522487203200362</v>
+        <v>0.001427256940815358</v>
       </c>
       <c r="M5" t="n">
-        <v>7.011405192981893</v>
+        <v>7.007414207090441</v>
       </c>
       <c r="N5" t="n">
-        <v>79.84591712045699</v>
+        <v>79.75280499271399</v>
       </c>
       <c r="O5" t="n">
-        <v>8.935654263704308</v>
+        <v>8.930442597806337</v>
       </c>
       <c r="P5" t="n">
-        <v>355.8064793133025</v>
+        <v>355.7907308028913</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -36090,28 +36142,28 @@
         <v>0.0357</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2182567704306806</v>
+        <v>-0.2180698834121644</v>
       </c>
       <c r="J6" t="n">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K6" t="n">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02226651614041608</v>
+        <v>0.02230132337016455</v>
       </c>
       <c r="M6" t="n">
-        <v>8.361195766296781</v>
+        <v>8.348520559624042</v>
       </c>
       <c r="N6" t="n">
-        <v>117.0043242533061</v>
+        <v>116.8134170136437</v>
       </c>
       <c r="O6" t="n">
-        <v>10.81685371322484</v>
+        <v>10.80802558350246</v>
       </c>
       <c r="P6" t="n">
-        <v>349.9976217493871</v>
+        <v>349.9957153411497</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -36168,28 +36220,28 @@
         <v>0.0368</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2816592346733355</v>
+        <v>-0.2824351512997644</v>
       </c>
       <c r="J7" t="n">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K7" t="n">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03793330203958856</v>
+        <v>0.0382536695928366</v>
       </c>
       <c r="M7" t="n">
-        <v>8.343132880408088</v>
+        <v>8.333408911105238</v>
       </c>
       <c r="N7" t="n">
-        <v>111.3863368170733</v>
+        <v>111.2146358725441</v>
       </c>
       <c r="O7" t="n">
-        <v>10.55397256093995</v>
+        <v>10.54583500120043</v>
       </c>
       <c r="P7" t="n">
-        <v>344.0970341353163</v>
+        <v>344.1049964597289</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -36246,28 +36298,28 @@
         <v>0.0361</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1235720248681072</v>
+        <v>-0.1240606755674085</v>
       </c>
       <c r="J8" t="n">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K8" t="n">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="L8" t="n">
-        <v>0.007434610192496693</v>
+        <v>0.007518419484444427</v>
       </c>
       <c r="M8" t="n">
-        <v>8.307320943916013</v>
+        <v>8.295708489980443</v>
       </c>
       <c r="N8" t="n">
-        <v>112.405850032675</v>
+        <v>112.2194866675277</v>
       </c>
       <c r="O8" t="n">
-        <v>10.6021625168017</v>
+        <v>10.59336993914249</v>
       </c>
       <c r="P8" t="n">
-        <v>340.4162162980138</v>
+        <v>340.4212538874883</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -36324,28 +36376,28 @@
         <v>0.0403</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03786086502636875</v>
+        <v>0.03637836896722958</v>
       </c>
       <c r="J9" t="n">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K9" t="n">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0008054995885394822</v>
+        <v>0.0007459252529617988</v>
       </c>
       <c r="M9" t="n">
-        <v>7.797659590976184</v>
+        <v>7.792660483555999</v>
       </c>
       <c r="N9" t="n">
-        <v>98.25288371708338</v>
+        <v>98.12663800141269</v>
       </c>
       <c r="O9" t="n">
-        <v>9.912259264016624</v>
+        <v>9.905889056587132</v>
       </c>
       <c r="P9" t="n">
-        <v>343.4017822374195</v>
+        <v>343.4170367741846</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -36402,28 +36454,28 @@
         <v>0.0409</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05416891184265044</v>
+        <v>0.05572495329093749</v>
       </c>
       <c r="J10" t="n">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K10" t="n">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002272739069763552</v>
+        <v>0.002411618404629334</v>
       </c>
       <c r="M10" t="n">
-        <v>6.86980838713181</v>
+        <v>6.865964340719574</v>
       </c>
       <c r="N10" t="n">
-        <v>71.84054792203897</v>
+        <v>71.76169495432538</v>
       </c>
       <c r="O10" t="n">
-        <v>8.4758803626549</v>
+        <v>8.471227476247192</v>
       </c>
       <c r="P10" t="n">
-        <v>348.6128115133231</v>
+        <v>348.5969197106055</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -36480,28 +36532,28 @@
         <v>0.0414</v>
       </c>
       <c r="I11" t="n">
-        <v>0.007955339285219796</v>
+        <v>0.009286854586921495</v>
       </c>
       <c r="J11" t="n">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K11" t="n">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="L11" t="n">
-        <v>5.168683129941343e-05</v>
+        <v>7.063669047935317e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>6.272333458261953</v>
+        <v>6.268382749559461</v>
       </c>
       <c r="N11" t="n">
-        <v>68.06364505690814</v>
+        <v>67.98254320698481</v>
       </c>
       <c r="O11" t="n">
-        <v>8.250069397096496</v>
+        <v>8.245152709743151</v>
       </c>
       <c r="P11" t="n">
-        <v>357.04827940607</v>
+        <v>357.0346177534737</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -36539,7 +36591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L729"/>
+  <dimension ref="A1:L730"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76089,6 +76141,68 @@
         </is>
       </c>
     </row>
+    <row r="730">
+      <c r="A730" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-12 22:00:24+00:00</t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>-39.85777415697072,176.98576228290537</t>
+        </is>
+      </c>
+      <c r="C730" t="inlineStr">
+        <is>
+          <t>-39.85808184513724,176.9849486660271</t>
+        </is>
+      </c>
+      <c r="D730" t="inlineStr">
+        <is>
+          <t>-39.85849205567349,176.9842197537608</t>
+        </is>
+      </c>
+      <c r="E730" t="inlineStr">
+        <is>
+          <t>-39.8590125014016,176.9836410090472</t>
+        </is>
+      </c>
+      <c r="F730" t="inlineStr">
+        <is>
+          <t>-39.859494051089115,176.9829813680626</t>
+        </is>
+      </c>
+      <c r="G730" t="inlineStr">
+        <is>
+          <t>-39.860005052685885,176.9823546797158</t>
+        </is>
+      </c>
+      <c r="H730" t="inlineStr">
+        <is>
+          <t>-39.86058949203468,176.9818709085352</t>
+        </is>
+      </c>
+      <c r="I730" t="inlineStr">
+        <is>
+          <t>-39.86118963622875,176.98141132666905</t>
+        </is>
+      </c>
+      <c r="J730" t="inlineStr">
+        <is>
+          <t>-39.86186700340987,176.98115494262717</t>
+        </is>
+      </c>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>-39.8625075840822,176.9808236419696</t>
+        </is>
+      </c>
+      <c r="L730" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0298/nzd0298.xlsx
+++ b/data/nzd0298/nzd0298.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L730"/>
+  <dimension ref="A1:L731"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28288,6 +28288,48 @@
         </is>
       </c>
     </row>
+    <row r="731">
+      <c r="A731" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-29 21:54:44+00:00</t>
+        </is>
+      </c>
+      <c r="B731" t="n">
+        <v>362.21</v>
+      </c>
+      <c r="C731" t="n">
+        <v>349.2785714285715</v>
+      </c>
+      <c r="D731" t="n">
+        <v>354.6685714285715</v>
+      </c>
+      <c r="E731" t="n">
+        <v>364.16</v>
+      </c>
+      <c r="F731" t="n">
+        <v>354.4485714285714</v>
+      </c>
+      <c r="G731" t="n">
+        <v>343.8985714285715</v>
+      </c>
+      <c r="H731" t="n">
+        <v>353.5085714285714</v>
+      </c>
+      <c r="I731" t="n">
+        <v>363.0485714285714</v>
+      </c>
+      <c r="J731" t="n">
+        <v>355.28</v>
+      </c>
+      <c r="K731" t="n">
+        <v>368.82</v>
+      </c>
+      <c r="L731" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -28299,7 +28341,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B735"/>
+  <dimension ref="A1:B736"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35657,6 +35699,16 @@
       </c>
       <c r="B735" t="n">
         <v>0.79</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>2025-09-29 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B736" t="n">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -36591,7 +36643,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L730"/>
+  <dimension ref="A1:L731"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76203,6 +76255,68 @@
         </is>
       </c>
     </row>
+    <row r="731">
+      <c r="A731" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-29 21:54:44+00:00</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>-39.85787248982916,176.98584973181673</t>
+        </is>
+      </c>
+      <c r="C731" t="inlineStr">
+        <is>
+          <t>-39.85814906166787,176.98500844217403</t>
+        </is>
+      </c>
+      <c r="D731" t="inlineStr">
+        <is>
+          <t>-39.858560452511384,176.9842879482732</t>
+        </is>
+      </c>
+      <c r="E731" t="inlineStr">
+        <is>
+          <t>-39.8590402584509,176.98368178237286</t>
+        </is>
+      </c>
+      <c r="F731" t="inlineStr">
+        <is>
+          <t>-39.85954173838387,176.9830740721592</t>
+        </is>
+      </c>
+      <c r="G731" t="inlineStr">
+        <is>
+          <t>-39.86005193086274,176.9824493282526</t>
+        </is>
+      </c>
+      <c r="H731" t="inlineStr">
+        <is>
+          <t>-39.86067375852861,176.98204799772878</t>
+        </is>
+      </c>
+      <c r="I731" t="inlineStr">
+        <is>
+          <t>-39.861290229199355,176.98165061340737</t>
+        </is>
+      </c>
+      <c r="J731" t="inlineStr">
+        <is>
+          <t>-39.86186822976254,176.98115832273731</t>
+        </is>
+      </c>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>-39.86253506340419,176.98090066594722</t>
+        </is>
+      </c>
+      <c r="L731" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0298/nzd0298.xlsx
+++ b/data/nzd0298/nzd0298.xlsx
@@ -35882,28 +35882,28 @@
         <v>0.0265</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.5036460410785281</v>
+        <v>-0.4918243783120195</v>
       </c>
       <c r="J2" t="n">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="K2" t="n">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04351712988273349</v>
+        <v>0.04146954172204809</v>
       </c>
       <c r="M2" t="n">
-        <v>13.21109380639007</v>
+        <v>13.23642583271836</v>
       </c>
       <c r="N2" t="n">
-        <v>304.7064890709106</v>
+        <v>306.1808356600768</v>
       </c>
       <c r="O2" t="n">
-        <v>17.45584398048145</v>
+        <v>17.49802376441628</v>
       </c>
       <c r="P2" t="n">
-        <v>341.6669961472609</v>
+        <v>341.5451601684508</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -35960,28 +35960,28 @@
         <v>0.0357</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1980266731377529</v>
+        <v>-0.1917889503909695</v>
       </c>
       <c r="J3" t="n">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="K3" t="n">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02357055463203561</v>
+        <v>0.02209912557743121</v>
       </c>
       <c r="M3" t="n">
-        <v>7.599638602188247</v>
+        <v>7.61476838522887</v>
       </c>
       <c r="N3" t="n">
-        <v>90.8604286533854</v>
+        <v>91.22620593110365</v>
       </c>
       <c r="O3" t="n">
-        <v>9.532073680652358</v>
+        <v>9.551241067584026</v>
       </c>
       <c r="P3" t="n">
-        <v>337.7081270837105</v>
+        <v>337.644507167348</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -36038,28 +36038,28 @@
         <v>0.0362</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1520056851342474</v>
+        <v>-0.1463802939036391</v>
       </c>
       <c r="J4" t="n">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="K4" t="n">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01066466018587786</v>
+        <v>0.009890597991340178</v>
       </c>
       <c r="M4" t="n">
-        <v>8.610429531668936</v>
+        <v>8.623148032627491</v>
       </c>
       <c r="N4" t="n">
-        <v>120.5509547240551</v>
+        <v>120.8469802504993</v>
       </c>
       <c r="O4" t="n">
-        <v>10.97956987882745</v>
+        <v>10.9930423564407</v>
       </c>
       <c r="P4" t="n">
-        <v>341.6080583560388</v>
+        <v>341.550379146062</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -36116,28 +36116,28 @@
         <v>0.0413</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.04501884846108381</v>
+        <v>-0.04201369261545929</v>
       </c>
       <c r="J5" t="n">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="K5" t="n">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001427256940815358</v>
+        <v>0.001245128458345457</v>
       </c>
       <c r="M5" t="n">
-        <v>7.007414207090441</v>
+        <v>7.010647496780623</v>
       </c>
       <c r="N5" t="n">
-        <v>79.75280499271399</v>
+        <v>79.77098690437752</v>
       </c>
       <c r="O5" t="n">
-        <v>8.930442597806337</v>
+        <v>8.931460513509396</v>
       </c>
       <c r="P5" t="n">
-        <v>355.7907308028913</v>
+        <v>355.7600562131028</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -36194,28 +36194,28 @@
         <v>0.0357</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2180698834121644</v>
+        <v>-0.2149162662831759</v>
       </c>
       <c r="J6" t="n">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="K6" t="n">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02230132337016455</v>
+        <v>0.02171487688259444</v>
       </c>
       <c r="M6" t="n">
-        <v>8.348520559624042</v>
+        <v>8.351938629259569</v>
       </c>
       <c r="N6" t="n">
-        <v>116.8134170136437</v>
+        <v>116.7902420118816</v>
       </c>
       <c r="O6" t="n">
-        <v>10.80802558350246</v>
+        <v>10.80695341027626</v>
       </c>
       <c r="P6" t="n">
-        <v>349.9957153411497</v>
+        <v>349.963473365539</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -36272,28 +36272,28 @@
         <v>0.0368</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2824351512997644</v>
+        <v>-0.280192659079436</v>
       </c>
       <c r="J7" t="n">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="K7" t="n">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0382536695928366</v>
+        <v>0.03776528233917797</v>
       </c>
       <c r="M7" t="n">
-        <v>8.333408911105238</v>
+        <v>8.331983255301234</v>
       </c>
       <c r="N7" t="n">
-        <v>111.2146358725441</v>
+        <v>111.1170454670036</v>
       </c>
       <c r="O7" t="n">
-        <v>10.54583500120043</v>
+        <v>10.54120702135214</v>
       </c>
       <c r="P7" t="n">
-        <v>344.1049964597289</v>
+        <v>344.0819333263783</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -36350,28 +36350,28 @@
         <v>0.0361</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1240606755674085</v>
+        <v>-0.118775584176905</v>
       </c>
       <c r="J8" t="n">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="K8" t="n">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="L8" t="n">
-        <v>0.007518419484444427</v>
+        <v>0.006892031734746951</v>
       </c>
       <c r="M8" t="n">
-        <v>8.295708489980443</v>
+        <v>8.310380430562697</v>
       </c>
       <c r="N8" t="n">
-        <v>112.2194866675277</v>
+        <v>112.478170721131</v>
       </c>
       <c r="O8" t="n">
-        <v>10.59336993914249</v>
+        <v>10.6055726258006</v>
       </c>
       <c r="P8" t="n">
-        <v>340.4212538874883</v>
+        <v>340.3666478695587</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -36428,28 +36428,28 @@
         <v>0.0403</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03637836896722958</v>
+        <v>0.04228099470435115</v>
       </c>
       <c r="J9" t="n">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="K9" t="n">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0007459252529617988</v>
+        <v>0.001004884110259785</v>
       </c>
       <c r="M9" t="n">
-        <v>7.792660483555999</v>
+        <v>7.810006963294573</v>
       </c>
       <c r="N9" t="n">
-        <v>98.12663800141269</v>
+        <v>98.53765386666511</v>
       </c>
       <c r="O9" t="n">
-        <v>9.905889056587132</v>
+        <v>9.926613413781414</v>
       </c>
       <c r="P9" t="n">
-        <v>343.4170367741846</v>
+        <v>343.3561650907165</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -36506,28 +36506,28 @@
         <v>0.0409</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05572495329093749</v>
+        <v>0.05737221573527699</v>
       </c>
       <c r="J10" t="n">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="K10" t="n">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002411618404629334</v>
+        <v>0.002562950932344488</v>
       </c>
       <c r="M10" t="n">
-        <v>6.865964340719574</v>
+        <v>6.862537733782445</v>
       </c>
       <c r="N10" t="n">
-        <v>71.76169495432538</v>
+        <v>71.68799231915801</v>
       </c>
       <c r="O10" t="n">
-        <v>8.471227476247192</v>
+        <v>8.466876184234538</v>
       </c>
       <c r="P10" t="n">
-        <v>348.5969197106055</v>
+        <v>348.5800586265631</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -36584,28 +36584,28 @@
         <v>0.0414</v>
       </c>
       <c r="I11" t="n">
-        <v>0.009286854586921495</v>
+        <v>0.01286406585794631</v>
       </c>
       <c r="J11" t="n">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="K11" t="n">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="L11" t="n">
-        <v>7.063669047935317e-05</v>
+        <v>0.0001355423992072113</v>
       </c>
       <c r="M11" t="n">
-        <v>6.268382749559461</v>
+        <v>6.274942116053912</v>
       </c>
       <c r="N11" t="n">
-        <v>67.98254320698481</v>
+        <v>68.08774164705058</v>
       </c>
       <c r="O11" t="n">
-        <v>8.245152709743151</v>
+        <v>8.251529654982194</v>
       </c>
       <c r="P11" t="n">
-        <v>357.0346177534737</v>
+        <v>356.9978323507146</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">

--- a/data/nzd0298/nzd0298.xlsx
+++ b/data/nzd0298/nzd0298.xlsx
@@ -35873,13 +35873,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.025</v>
+        <v>0.035</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0247</v>
+        <v>0.0329</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0265</v>
+        <v>0.042</v>
       </c>
       <c r="I2" t="n">
         <v>-0.4918243783120195</v>
@@ -35951,13 +35951,13 @@
         <v>0.1113157815709021</v>
       </c>
       <c r="F3" t="n">
-        <v>0.035</v>
+        <v>0.05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.034</v>
+        <v>0.0489</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0357</v>
+        <v>0.054</v>
       </c>
       <c r="I3" t="n">
         <v>-0.1918006111924722</v>
@@ -36029,13 +36029,13 @@
         <v>0.2226315631418043</v>
       </c>
       <c r="F4" t="n">
-        <v>0.035</v>
+        <v>0.05</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0343</v>
+        <v>0.0474</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0362</v>
+        <v>0.0515</v>
       </c>
       <c r="I4" t="n">
         <v>-0.1463730294968852</v>
@@ -36107,13 +36107,13 @@
         <v>0.3322920303959181</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G5" t="n">
-        <v>0.039</v>
+        <v>0.0494</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0413</v>
+        <v>0.0559</v>
       </c>
       <c r="I5" t="n">
         <v>-0.04201369261545929</v>
@@ -36185,13 +36185,13 @@
         <v>0.4436078119639016</v>
       </c>
       <c r="F6" t="n">
-        <v>0.035</v>
+        <v>0.045</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0337</v>
+        <v>0.0413</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0357</v>
+        <v>0.0465</v>
       </c>
       <c r="I6" t="n">
         <v>-0.2149137627920897</v>
@@ -36263,13 +36263,13 @@
         <v>0.554923109143727</v>
       </c>
       <c r="F7" t="n">
-        <v>0.035</v>
+        <v>0.045</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0346</v>
+        <v>0.0428</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0368</v>
+        <v>0.047</v>
       </c>
       <c r="I7" t="n">
         <v>-0.2801887821150006</v>
@@ -36341,13 +36341,13 @@
         <v>0.6662388907127007</v>
       </c>
       <c r="F8" t="n">
-        <v>0.035</v>
+        <v>0.05</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0345</v>
+        <v>0.0457</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0361</v>
+        <v>0.0509</v>
       </c>
       <c r="I8" t="n">
         <v>-0.118777570023226</v>
@@ -36419,13 +36419,13 @@
         <v>0.7775448824449028</v>
       </c>
       <c r="F9" t="n">
-        <v>0.035</v>
+        <v>0.05</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0347</v>
+        <v>0.0449</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0403</v>
+        <v>0.0505</v>
       </c>
       <c r="I9" t="n">
         <v>0.0422761277467331</v>
@@ -36497,13 +36497,13 @@
         <v>0.8888606640127976</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0382</v>
+        <v>0.0496</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0409</v>
+        <v>0.0556</v>
       </c>
       <c r="I10" t="n">
         <v>0.05737221573527699</v>
@@ -36575,13 +36575,13 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0393</v>
+        <v>0.0485</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0414</v>
+        <v>0.0504</v>
       </c>
       <c r="I11" t="n">
         <v>0.01286406585794631</v>
